--- a/电子签约平台/流程梳理/签约模式及API定义.xlsx
+++ b/电子签约平台/流程梳理/签约模式及API定义.xlsx
@@ -4,130 +4,92 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
     <sheet name="基本概念" sheetId="7" r:id="rId2"/>
     <sheet name="目录" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="0101" sheetId="1" r:id="rId4"/>
+    <sheet name="0102" sheetId="2" r:id="rId5"/>
+    <sheet name="0201" sheetId="3" r:id="rId6"/>
+    <sheet name="0202" sheetId="9" r:id="rId7"/>
+    <sheet name="附录-证书检验及pfx生成" sheetId="10" r:id="rId8"/>
+    <sheet name="附录-证件类型" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>签约模式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯接口方式实现签章流程，开发者调用接口，进行业务实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建个人用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建企业用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>陈荣光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建个人印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建企业印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户印章查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文件保全上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>返回模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>异步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -150,15 +112,11 @@
       </rPr>
       <t>-01</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -181,27 +139,19 @@
       </rPr>
       <t>-02</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合同-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -224,160 +174,1201 @@
       </rPr>
       <t>-04</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>签约-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单个签约-标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单个签约-快捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>异步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>批量签约-标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>批量签约-快捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>同时支持合同模板/直接文件流模式，同时支持直接保全/无需保全模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>印章修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合同模板上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合同模板修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单个流转签约-发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单个流转签约-发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>批量流转签约-发起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0511</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支持发起方签署或者发起方不签署，也支持发起方先签署，或者最后签署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支持发起方签署或者发起方不签署，也支持发起方先签署，或者最后签署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开发者可以调用该接口查询某次签署的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可以根据某个签署方账号，查询其已经签署的合同和需要签署的合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>签署状态查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>签署合同查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>初版，建立文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量创建个人用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量创建个人印章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0303</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保全合同下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建个人用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证件类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详看附录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件名称</t>
+  </si>
+  <si>
+    <t>证件编码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">居民身份证                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">护照                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">军人身份证                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">工商登记证                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">税务登记证                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">股东代码证                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">社会保障卡                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">组织机构代码证                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">企业营业执照                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">法人代码证                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">武装警察身份证件                    </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">港澳居民往来内地通行证                 </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台湾居民来往大陆通行证                 </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">户口簿                         </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">临时居民身份证                     </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">警察(警官)证                     </t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事业单位法人证书                    </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">社会团体登记证书                    </t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">民办非企业登记证书                   </t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外国(地区)企业常驻代表机构登记证           </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政府批文                        </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>统一社会信用代码证</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外国人永久居留证                       </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他                          </t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>注册时：</t>
+  </si>
+  <si>
+    <t>个人用户：</t>
+  </si>
+  <si>
+    <t>证件类型为身份证</t>
+  </si>
+  <si>
+    <t>企业用户：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证件类型分为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种：</t>
+    </r>
+  </si>
+  <si>
+    <t>非三证合一的填写：</t>
+  </si>
+  <si>
+    <t>组织机构代码证</t>
+  </si>
+  <si>
+    <t>三证合一的填写:统一社会信用代码证</t>
+  </si>
+  <si>
+    <t>identity_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册手机号，唯一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建企业用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建个人签名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建个人签名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建企业印章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的接口：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>makeNamedSeal</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_name2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章正文，不填为企业名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形章底部正文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片宽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片形状：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方型；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：方形（带框）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：圆形
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：长方形；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：长方形（带框）
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色十六进制，默认FF0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体大小，默认100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部，先用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>platform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找到企业对应信息，然后调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>autoGenerateImage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口，生成图片的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>base64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据该编码和其他的信息，自己操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seal_image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表生成一个印模（插入一条记录），</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得到该印模的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后使用该印模的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>makeSeal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，其中的印模编码，传入上面得到的印模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意，调用业务之前，先根据传入的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>userid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>platform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，进行相关的操作，详细参照</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附录</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书检验及</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>pfx</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后在库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">platform </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>esc_pfx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中可以得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pfx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -388,6 +1379,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -407,7 +1436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -415,37 +1444,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1912,13 +2978,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>285859</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>667363</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
@@ -1929,8 +2995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="7132863"/>
-          <a:ext cx="1737632" cy="1330780"/>
+          <a:off x="285859" y="7334677"/>
+          <a:ext cx="1751392" cy="1366098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1982,7 +3048,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>559934</xdr:colOff>
+      <xdr:colOff>476611</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
@@ -2002,8 +3068,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1240291" y="6324600"/>
-          <a:ext cx="1191306" cy="808263"/>
+          <a:off x="1161555" y="6501187"/>
+          <a:ext cx="1283802" cy="833490"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2031,14 +3097,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>513712</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
+      <xdr:colOff>128125</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
@@ -2049,8 +3115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2721429" y="7151914"/>
-          <a:ext cx="1660071" cy="1311729"/>
+          <a:off x="2568543" y="7353728"/>
+          <a:ext cx="1669245" cy="1347047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2094,8 +3160,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663391</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2109,8 +3175,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2431597" y="6324600"/>
-          <a:ext cx="1119868" cy="827314"/>
+          <a:off x="2445357" y="6501187"/>
+          <a:ext cx="957809" cy="852541"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2193,14 +3259,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>179626</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404384</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666754</xdr:colOff>
+      <xdr:colOff>206568</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
@@ -2211,8 +3277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6983197" y="7007678"/>
-          <a:ext cx="1167486" cy="348343"/>
+          <a:off x="6568878" y="7204447"/>
+          <a:ext cx="1172072" cy="358433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2250,8 +3316,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>83011</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>305476</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>118382</xdr:rowOff>
     </xdr:from>
@@ -2271,8 +3337,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7566940" y="6309632"/>
-          <a:ext cx="919846" cy="698046"/>
+          <a:off x="7154914" y="6486219"/>
+          <a:ext cx="1386912" cy="718228"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2301,13 +3367,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>462647</xdr:colOff>
+      <xdr:colOff>302117</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>244933</xdr:colOff>
+      <xdr:colOff>181939</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
@@ -2318,8 +3384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8626933" y="7007678"/>
-          <a:ext cx="1143000" cy="348343"/>
+          <a:off x="8521443" y="7204447"/>
+          <a:ext cx="1249709" cy="358433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2358,13 +3424,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>322500</xdr:colOff>
+      <xdr:colOff>311798</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>118382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>353790</xdr:colOff>
+      <xdr:colOff>242028</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -2372,14 +3438,13 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="87" name="直接箭头连接符 86"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="82" idx="4"/>
           <a:endCxn id="86" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8486786" y="6309632"/>
-          <a:ext cx="711647" cy="698046"/>
+          <a:off x="8531124" y="6486219"/>
+          <a:ext cx="615174" cy="718228"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2408,15 +3473,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>353790</xdr:colOff>
+      <xdr:colOff>214045</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>103414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>369227</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>242028</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2427,9 +3492,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9258060" y="7562880"/>
-          <a:ext cx="15437" cy="633864"/>
+        <a:xfrm flipH="1">
+          <a:off x="9118315" y="7562880"/>
+          <a:ext cx="27983" cy="431701"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2457,16 +3522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21404</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>32107</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>74915</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438793</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>674242</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>96321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2475,8 +3540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8240730" y="8196744"/>
-          <a:ext cx="2065534" cy="2248649"/>
+          <a:off x="7973175" y="7994581"/>
+          <a:ext cx="2290280" cy="2654156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,7 +3570,23 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>该类接口调用时返回一个回执</a:t>
+            <a:t>该类接口调用时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统先做预处理，预处理如果成功则同步返回成功 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> + </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>回执</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -2513,7 +3594,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>开发者可根据该回执</a:t>
+            <a:t>后续如果开发者着急查询该处理状态（或者错过了系统推送的通知），那么根据该回执</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -2521,15 +3602,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>查询该次调用的处理状态</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>采用多次通知的模式，以开发者回复</a:t>
+            <a:t>查询该次调用的处理状态和结果。系统异步通知时采用多次通知的模式，以开发者回复</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -2938,14 +4011,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>490321</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:colOff>36699</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -2956,8 +4029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4803321" y="5783034"/>
-          <a:ext cx="1592036" cy="517073"/>
+          <a:off x="4599984" y="5944485"/>
+          <a:ext cx="1601209" cy="532209"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2993,14 +4066,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>156482</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605982</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176895</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>626395</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -3014,8 +4087,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5599339" y="6300107"/>
-          <a:ext cx="20413" cy="770164"/>
+          <a:off x="5400589" y="6476694"/>
+          <a:ext cx="20413" cy="790346"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3043,14 +4116,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>40823</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>490323</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>312967</xdr:colOff>
+      <xdr:colOff>77523</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
@@ -3061,8 +4134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4803323" y="7070271"/>
-          <a:ext cx="1632858" cy="1556657"/>
+          <a:off x="4599986" y="7267040"/>
+          <a:ext cx="1642031" cy="1602065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4058,8 +5131,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>531340</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>85618</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>32107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4069,7 +5142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7684218" y="13442023"/>
-          <a:ext cx="1751392" cy="2654157"/>
+          <a:ext cx="1751392" cy="2964522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4922,6 +5995,2369 @@
         <a:xfrm flipH="1">
           <a:off x="13238680" y="12345577"/>
           <a:ext cx="19954" cy="935912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>299664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>305476</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>174845</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接箭头连接符 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7149102" y="7562880"/>
+          <a:ext cx="5812" cy="435308"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374579</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>192640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>135857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="矩形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6539073" y="8015984"/>
+          <a:ext cx="1187949" cy="1580660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>整个业务处理完成之后，再返回处理结果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>494910</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>113912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142485</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10846058" y="113912"/>
+          <a:ext cx="1717805" cy="544480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>企业</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获得用户传入的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>user_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631761</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19438</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87474</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6152373" y="19439"/>
+          <a:ext cx="77754" cy="2838061"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="菱形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9464675" y="2778126"/>
+          <a:ext cx="2946401" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有没有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pfx_data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>字段</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660918</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8251760" y="3119923"/>
+          <a:ext cx="41308" cy="1470869"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429791</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>391691</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7330556" y="2301928"/>
+          <a:ext cx="2032130" cy="951916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>到数据库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>latform-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>esc-pfx</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="323343"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8680450" y="2981324"/>
+          <a:ext cx="325730" cy="323343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125076" y="5648325"/>
+          <a:ext cx="2019300" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据企业的详细信息，调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cfca</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>部分接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-2101</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（证书申请）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11134726" y="6772275"/>
+          <a:ext cx="9524" cy="742949"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="7515224"/>
+          <a:ext cx="2019300" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>将接口返回的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>serial_no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>starttime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>endtime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>等信息存入表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ecs_user_ca</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中，如果是企业，同时存入缓存中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12151</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19439</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11053375" y="3753693"/>
+          <a:ext cx="7288" cy="1679445"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextBox 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10779125" y="4127500"/>
+          <a:ext cx="325730" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>无</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="9563100"/>
+          <a:ext cx="2019300" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>kt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统的接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-3.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>产生私钥及</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115675" y="10725150"/>
+          <a:ext cx="9524" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125075" y="11487150"/>
+          <a:ext cx="2019300" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>kt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统的接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-3.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>证书</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11115675" y="12582525"/>
+          <a:ext cx="9524" cy="742949"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="13354050"/>
+          <a:ext cx="2019300" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>将得到的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据存储到库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-platfom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>esc-pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中，如果是企业，同时将该数据放入缓存中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7947025" y="3168650"/>
+          <a:ext cx="1562100" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464392</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>153567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426292</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5985004" y="2738924"/>
+          <a:ext cx="2032130" cy="1088960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>判断该数据对应的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>endtime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>字段，看看证书是否到期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>474306</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426682</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="菱形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5994918" y="4148830"/>
+          <a:ext cx="2022606" cy="1088960"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>过期判断</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100304</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105456</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86126</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接箭头连接符 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7001069" y="3827884"/>
+          <a:ext cx="5152" cy="320946"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236181</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>474306</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直接箭头连接符 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5066717" y="4693309"/>
+          <a:ext cx="928201" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133156</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="847725" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="TextBox 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181016" y="4565197"/>
+          <a:ext cx="847725" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>已经过期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>245123</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>207023</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>36363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="矩形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3005429" y="4118117"/>
+          <a:ext cx="2032130" cy="1088960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>部分关于证书的延期的相关接口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105456</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87478</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接箭头连接符 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="2"/>
+          <a:endCxn id="120" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4233184" y="6899806"/>
+          <a:ext cx="12731" cy="574407"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>408409</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="847725" cy="283492"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="TextBox 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619098" y="5365103"/>
+          <a:ext cx="847725" cy="283492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不过期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666556</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>670637</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>126352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直接箭头连接符 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4116939" y="5237584"/>
+          <a:ext cx="4081" cy="2460171"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19439</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>105748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>532623</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直接箭头连接符 91"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4159898" y="7677151"/>
+          <a:ext cx="6033796" cy="30324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165230</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>48597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174754</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>29546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直接箭头连接符 117"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8446148" y="8543342"/>
+          <a:ext cx="9524" cy="719622"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456813</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418713</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="矩形 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3217119" y="7474213"/>
+          <a:ext cx="2032130" cy="670638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>读取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据给接口使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>592882</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>240458</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="矩形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5423418" y="184668"/>
+          <a:ext cx="1717805" cy="544480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个人</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获得用户传入的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>user_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>663737</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直接箭头连接符 126"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="132" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11704961" y="658392"/>
+          <a:ext cx="60260" cy="1635383"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>145596</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="菱形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10273392" y="2293775"/>
+          <a:ext cx="2983658" cy="1030256"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>缓存中判断有没有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pfx_data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>字段</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>77755</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429791</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直接箭头连接符 138"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6288444" y="2777886"/>
+          <a:ext cx="1042112" cy="31017"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>576360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>48596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直接箭头连接符 143"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9379210" y="2797324"/>
+          <a:ext cx="858221" cy="21298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38879</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>37018</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="323343"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="TextBox 146"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9699950" y="2622375"/>
+          <a:ext cx="325730" cy="323343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456811</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418711</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>97195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="矩形 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3217117" y="8475307"/>
+          <a:ext cx="2032130" cy="670638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>如无缓存，并且是企业，进行缓存的存储</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92723</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92725</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="直接箭头连接符 151"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="2"/>
+          <a:endCxn id="151" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4233182" y="8144851"/>
+          <a:ext cx="2" cy="330456"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5249,16 +8685,16 @@
   <sheetData>
     <row r="3" spans="4:7">
       <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="4:7">
@@ -5266,17 +8702,17 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4">
         <v>42677</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5285,13 +8721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5299,10 +8735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:I61"/>
+  <dimension ref="C4:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5316,334 +8752,366 @@
   <sheetData>
     <row r="4" spans="3:9">
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="19.5" customHeight="1">
       <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:9" ht="24.75" customHeight="1">
       <c r="C6" s="8"/>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="3:9" ht="20.25" customHeight="1">
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
+    <row r="7" spans="3:9" ht="24.75" customHeight="1">
+      <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C8" s="8"/>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
+    <row r="8" spans="3:9" ht="20.25" customHeight="1">
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:9" ht="21.75" customHeight="1">
       <c r="C9" s="8"/>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
+      <c r="D9" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="3:9" ht="23.25" customHeight="1">
+    <row r="10" spans="3:9" ht="21.75" customHeight="1">
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="11" spans="3:9" ht="21.75" customHeight="1">
+      <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="3:9" ht="23.25" customHeight="1">
       <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C14" s="7"/>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C15" s="7"/>
+      <c r="D15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" ht="23.25" customHeight="1">
+      <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="3:7" ht="27" customHeight="1">
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="17.25" customHeight="1">
+      <c r="C19" s="7"/>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="7"/>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="3:9" ht="27" customHeight="1">
-      <c r="C14" s="10" t="s">
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="G21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="7"/>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="7"/>
+      <c r="D23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="17.25" customHeight="1">
-      <c r="C15" s="10"/>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="10"/>
-      <c r="D16" s="3" t="s">
+      <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="10"/>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="7"/>
+      <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="10"/>
-      <c r="D18" s="3" t="s">
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="10"/>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="10"/>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="10"/>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="10"/>
-      <c r="D22" s="3" t="s">
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="7"/>
+      <c r="D26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="7"/>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="1" t="s">
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="7"/>
+      <c r="D28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="10"/>
-      <c r="D23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="10"/>
-      <c r="D24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="3"/>
@@ -5786,28 +9254,55 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="3:7">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="3:7">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="3:7">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="3:7">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="3:7">
       <c r="G61" s="5"/>
     </row>
+    <row r="62" spans="3:7">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C24"/>
+  <mergeCells count="5">
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D5" location="'0101'!A1" display="0101"/>
+    <hyperlink ref="D6" location="'0102'!A1" display="0102"/>
+    <hyperlink ref="D8" location="'0201'!A1" display="0201"/>
+    <hyperlink ref="D9" location="'0202'!A1" display="0202"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5815,29 +9310,129 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="10" customFormat="1">
+      <c r="B8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5845,26 +9440,994 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F28" location="'附录-证书检验及pfx生成'!A1" display="附录-证书检验及pfx生成"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" s="10" customFormat="1">
+      <c r="B9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="10" customFormat="1">
+      <c r="B10" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1">
+      <c r="B11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1">
+      <c r="B12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1" ht="84">
+      <c r="B13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1">
+      <c r="B15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1"/>
+    <row r="17" spans="1:6" s="10" customFormat="1"/>
+    <row r="18" spans="1:6" s="10" customFormat="1"/>
+    <row r="19" spans="1:6" s="10" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="10" customFormat="1">
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1">
+      <c r="B21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="10" customFormat="1">
+      <c r="B22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="10" customFormat="1">
+      <c r="A30" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F30" location="'附录-证书检验及pfx生成'!A1" display="附录-证书检验及pfx生成"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" s="10" customFormat="1"/>
+    <row r="2" s="10" customFormat="1"/>
+    <row r="3" s="10" customFormat="1"/>
+    <row r="4" s="10" customFormat="1"/>
+    <row r="5" s="10" customFormat="1"/>
+    <row r="6" s="10" customFormat="1"/>
+    <row r="7" s="10" customFormat="1"/>
+    <row r="8" s="10" customFormat="1"/>
+    <row r="9" s="10" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/电子签约平台/流程梳理/签约模式及API定义.xlsx
+++ b/电子签约平台/流程梳理/签约模式及API定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="955" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -14,15 +14,28 @@
     <sheet name="0102" sheetId="2" r:id="rId5"/>
     <sheet name="0201" sheetId="3" r:id="rId6"/>
     <sheet name="0202" sheetId="9" r:id="rId7"/>
-    <sheet name="附录-证书检验及pfx生成" sheetId="10" r:id="rId8"/>
-    <sheet name="附录-证件类型" sheetId="8" r:id="rId9"/>
+    <sheet name="0301" sheetId="11" r:id="rId8"/>
+    <sheet name="0302" sheetId="12" r:id="rId9"/>
+    <sheet name="0401" sheetId="13" r:id="rId10"/>
+    <sheet name="0501" sheetId="14" r:id="rId11"/>
+    <sheet name="0503" sheetId="16" r:id="rId12"/>
+    <sheet name="0505" sheetId="18" r:id="rId13"/>
+    <sheet name="附录-证书检验及pfx生成" sheetId="10" r:id="rId14"/>
+    <sheet name="附录-证件类型" sheetId="8" r:id="rId15"/>
+    <sheet name="附录-sign_stard" sheetId="15" r:id="rId16"/>
+    <sheet name="附录-sign_conv" sheetId="17" r:id="rId17"/>
+    <sheet name="附录-standar_user" sheetId="22" r:id="rId18"/>
+    <sheet name="附录-conv-user" sheetId="23" r:id="rId19"/>
+    <sheet name="附录-sign_para" sheetId="19" r:id="rId20"/>
+    <sheet name="附录-pub_info" sheetId="20" r:id="rId21"/>
+    <sheet name="附录-user_list" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="256">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,10 +78,6 @@
   </si>
   <si>
     <t>用户印章查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件保全上传</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -142,15 +151,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同-03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0301</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -185,10 +186,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0502</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,26 +206,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0503</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0504</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0505</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0506</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>批量签约-标准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>批量签约-快捷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,10 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0302</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同模板修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -346,18 +327,6 @@
   </si>
   <si>
     <t>合同模板下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保全合同下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1349,6 +1318,962 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>新增-上传合同模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmpl_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmpl_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmpl_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合同模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板数据，二进制流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改合同模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0302</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal_flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否同时创建个人签名，默认0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果同时创建个人签名，则该字段返回签名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seal_flag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>true,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则需要同时执行创建个人签名之后，再返回</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件保全上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件保全上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同数据，二进制流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回成功或者失败，如果成功，返回回执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后根据该回执进行异步通知（通知内容为最终保全文件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板id/二选一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容/二选一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签约人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约人类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签章页码，可多页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落章位置类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐标签章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键字签章</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）单页，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1,2,3,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）多页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+区间，（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）所有页
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按坐标签章时的X坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按坐标签章时的Y坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按关键字落章时，不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按坐标落章时，不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按坐标落章时，不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非保全服务，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接返回签约之后的合同内容</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保全服务，直接返回该合同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接进行保全服务,默认0，不保全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接进行保全服务,默认0，不保全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e(企业)/p（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个签约-标准-同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个签约-快捷-同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签约完成之后，系统需要自动记录合同信息，包括该份合同涉及到的签署人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以便后续根据签署人信息来进行查询其签署过的合同</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量签约-标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0503</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0505</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量签约-标准-异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_para</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_para</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>standar_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>standar_user:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准签约模式的签约人信息</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>conv-user:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快捷签约人信息</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷签约人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业类型的签约信息，只能是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sign_detail_stard</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷签约信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sign_detail_stard </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pub_info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指的是在每份合同里边都需要签约的签约人和签约参数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_para</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里只能是标准模式的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是签约参数，这个参数会被下面批量的每个签约用户使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>standar_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量的签约人，这里可以是标准签约人，也可以是快捷签约人,由签约模式决定接收的参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回成功或者失败，如果成功，返回回执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后根据该回执进行异步通知（注：必须返回成功列表和失败列表，成功列表必须每份都有手机号或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，合同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果有保全服务，还需要返回合同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>url,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败的必须有手机号或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_conv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_stard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约详细内容,可以多个，里边必须是sign_stard的形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_stard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约详细内容,可以多个，企业必须是sign_stard的形式，而个人则可以使sign_conv的形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_conv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约详细内容,里边包括 pub_info 和 user_list两个结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至于这个的数量限制，我们可以先定义为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1422,7 +2347,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,6 +2357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +2401,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1481,9 +2412,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,6 +2435,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8708,8 +9652,1829 @@
         <v>42677</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1">
+      <c r="B8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="69">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="27.75">
+      <c r="B10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" s="9" customFormat="1"/>
+    <row r="18" spans="1:5" s="9" customFormat="1"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="9" customFormat="1">
+      <c r="B22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.5">
+      <c r="B23" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" location="'附录-sign_stard'!A1" display="sign_stard"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="27.75">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="41.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" s="23" customFormat="1">
+      <c r="B23" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E12" location="'附录-sign_conv'!A1" display="sign_conv"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="39" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="84">
+      <c r="B22" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E11" location="'附录-pub_info'!A1" display="pub_info"/>
+    <hyperlink ref="E12" location="'附录-user_list'!A1" display="user_list"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" s="9" customFormat="1"/>
+    <row r="2" s="9" customFormat="1"/>
+    <row r="3" s="9" customFormat="1"/>
+    <row r="4" s="9" customFormat="1"/>
+    <row r="5" s="9" customFormat="1"/>
+    <row r="6" s="9" customFormat="1"/>
+    <row r="7" s="9" customFormat="1"/>
+    <row r="8" s="9" customFormat="1"/>
+    <row r="9" s="9" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1"/>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1">
+      <c r="B5" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" location="'附录-sign_para'!A1" display="sign_para"/>
+    <hyperlink ref="B5" location="'附录-standar_user'!A1" display="standar_user"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="9"/>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:9" s="9" customFormat="1">
+      <c r="C5" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="9"/>
+      <c r="C6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" location="'附录-sign_para'!A1" display="sign_para"/>
+    <hyperlink ref="C5" location="'附录-conv-user'!A1" display="conv_user"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1"/>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="14"/>
+      <c r="D6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="C7" s="14"/>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="14"/>
+      <c r="D8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8721,7 +11486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
@@ -8733,12 +11498,248 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="46.5" customHeight="1">
+      <c r="C5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="C7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="C8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="C9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.75">
+      <c r="C5" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1"/>
+    <row r="7" spans="1:6" s="9" customFormat="1"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" location="'附录-sign_detail_stard'!A1" display="sign_detail_stard "/>
+    <hyperlink ref="C5" location="'附录-sign_para'!A1" display="sign_para"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="B2" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" location="'附录-standar_user'!A1" display="standar_user"/>
+    <hyperlink ref="C5" location="'附录-conv-user'!A1" display="conv_user"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:I65"/>
+  <dimension ref="C4:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8752,16 +11753,16 @@
   <sheetData>
     <row r="4" spans="3:9">
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>1</v>
@@ -8770,348 +11771,340 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="19.5" customHeight="1">
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>164</v>
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C6" s="8"/>
-      <c r="D6" s="16" t="s">
-        <v>18</v>
+      <c r="C6" s="17"/>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C7" s="8"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="3:9" ht="20.25" customHeight="1">
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>138</v>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C9" s="8"/>
-      <c r="D9" s="16" t="s">
-        <v>166</v>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C10" s="8"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C11" s="8"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C12" s="8"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C14" s="18"/>
+      <c r="D14" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C15" s="18"/>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" ht="27" customHeight="1">
+      <c r="C17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C14" s="7"/>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="17.25" customHeight="1">
+      <c r="C18" s="18"/>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="18"/>
+      <c r="D19" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="18"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="18"/>
+      <c r="D21" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="18"/>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="18"/>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="18"/>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C15" s="7"/>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="3:7" ht="23.25" customHeight="1">
-      <c r="C17" s="8"/>
-      <c r="D17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="3:7" ht="27" customHeight="1">
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="17.25" customHeight="1">
-      <c r="C19" s="7"/>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="7"/>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="7"/>
-      <c r="D21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="7"/>
-      <c r="D22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="7"/>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="7"/>
-      <c r="D24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="7"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="18"/>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="18"/>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="7"/>
-      <c r="D26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="7"/>
-      <c r="D27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="7"/>
-      <c r="D28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="3"/>
@@ -9269,8 +12262,6 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="3:7">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="3:7">
@@ -9285,16 +12276,12 @@
     <row r="64" spans="3:7">
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="7:7">
-      <c r="G65" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="C17:C27"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -9302,6 +12289,12 @@
     <hyperlink ref="D6" location="'0102'!A1" display="0102"/>
     <hyperlink ref="D8" location="'0201'!A1" display="0201"/>
     <hyperlink ref="D9" location="'0202'!A1" display="0202"/>
+    <hyperlink ref="D13" location="'0301'!A1" display="0301"/>
+    <hyperlink ref="D14" location="'0302'!A1" display="0302"/>
+    <hyperlink ref="D16" location="'0401'!A1" display="0401"/>
+    <hyperlink ref="D17" location="'0501'!A1" display="0501"/>
+    <hyperlink ref="D19" location="'0503'!A1" display="0503"/>
+    <hyperlink ref="D21" location="'0505'!A1" display="0505"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9310,10 +12303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9327,10 +12320,10 @@
     <row r="1" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9341,94 +12334,118 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="10" customFormat="1">
-      <c r="B8" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="15"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1">
+      <c r="B8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>78</v>
+        <v>119</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15" t="s">
-        <v>134</v>
+      <c r="A19" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>136</v>
+      <c r="B21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.75">
+      <c r="B22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -9443,7 +12460,7 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9453,208 +12470,208 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9678,199 +12695,199 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="15"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>145</v>
+      <c r="A26" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>168</v>
+      <c r="A28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -9887,7 +12904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -9900,214 +12917,214 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" s="9" customFormat="1">
+      <c r="B9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="9" customFormat="1">
+      <c r="B10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1">
+      <c r="B11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1">
+      <c r="B12" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="84">
+      <c r="B13" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" s="10" customFormat="1">
-      <c r="B9" s="10" t="s">
+      <c r="C13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1">
+      <c r="B15" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="C15" s="14" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="10" customFormat="1">
-      <c r="B10" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="10" customFormat="1">
-      <c r="B11" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1">
-      <c r="B12" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" ht="84">
-      <c r="B13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1">
-      <c r="B15" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="10" customFormat="1"/>
-    <row r="17" spans="1:6" s="10" customFormat="1"/>
-    <row r="18" spans="1:6" s="10" customFormat="1"/>
-    <row r="19" spans="1:6" s="10" customFormat="1">
-      <c r="A19" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="10" customFormat="1">
+      <c r="D15" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1"/>
+    <row r="17" spans="1:6" s="9" customFormat="1"/>
+    <row r="18" spans="1:6" s="9" customFormat="1"/>
+    <row r="19" spans="1:6" s="9" customFormat="1">
+      <c r="A19" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1">
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1">
-      <c r="B21" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="10" customFormat="1">
-      <c r="B22" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>143</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1">
+      <c r="B21" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1">
+      <c r="B22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
-        <v>161</v>
+      <c r="A25" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>162</v>
+      <c r="A26" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="10" customFormat="1">
-      <c r="A30" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>168</v>
+      <c r="A27" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="9" customFormat="1">
+      <c r="A30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="10" t="s">
-        <v>169</v>
+      <c r="A31" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -10121,310 +13138,413 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1"/>
-    <row r="2" s="10" customFormat="1"/>
-    <row r="3" s="10" customFormat="1"/>
-    <row r="4" s="10" customFormat="1"/>
-    <row r="5" s="10" customFormat="1"/>
-    <row r="6" s="10" customFormat="1"/>
-    <row r="7" s="10" customFormat="1"/>
-    <row r="8" s="10" customFormat="1"/>
-    <row r="9" s="10" customFormat="1"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="15" t="s">
-        <v>129</v>
-      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/电子签约平台/流程梳理/签约模式及API定义.xlsx
+++ b/电子签约平台/流程梳理/签约模式及API定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="955" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -18,24 +18,20 @@
     <sheet name="0302" sheetId="12" r:id="rId9"/>
     <sheet name="0401" sheetId="13" r:id="rId10"/>
     <sheet name="0501" sheetId="14" r:id="rId11"/>
-    <sheet name="0503" sheetId="16" r:id="rId12"/>
-    <sheet name="0505" sheetId="18" r:id="rId13"/>
+    <sheet name="0502" sheetId="16" r:id="rId12"/>
+    <sheet name="0503" sheetId="18" r:id="rId13"/>
     <sheet name="附录-证书检验及pfx生成" sheetId="10" r:id="rId14"/>
     <sheet name="附录-证件类型" sheetId="8" r:id="rId15"/>
-    <sheet name="附录-sign_stard" sheetId="15" r:id="rId16"/>
-    <sheet name="附录-sign_conv" sheetId="17" r:id="rId17"/>
-    <sheet name="附录-standar_user" sheetId="22" r:id="rId18"/>
-    <sheet name="附录-conv-user" sheetId="23" r:id="rId19"/>
-    <sheet name="附录-sign_para" sheetId="19" r:id="rId20"/>
-    <sheet name="附录-pub_info" sheetId="20" r:id="rId21"/>
-    <sheet name="附录-user_list" sheetId="21" r:id="rId22"/>
+    <sheet name="附录-sign_info" sheetId="15" r:id="rId16"/>
+    <sheet name="附录-sign_user" sheetId="22" r:id="rId17"/>
+    <sheet name="附录-sign_para" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="250">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,42 +190,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单个签约-标准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个签约-快捷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>异步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0504</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0506</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>批量签约-快捷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时支持合同模板/直接文件流模式，同时支持直接保全/无需保全模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0507</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0508</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>印章修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,19 +226,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0509</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>批量流转签约-发起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0510</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0511</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1559,34 +1519,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合同内容/二选一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>user_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>签约人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1873,23 +1806,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否直接进行保全服务,默认0，不保全</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否直接进行保全服务,默认0，不保全</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>e(企业)/p（个人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个签约-标准-同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个签约-快捷-同步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1926,10 +1843,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>批量签约-标准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0501</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1942,10 +1855,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>批量签约-标准-异步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sign_para</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1955,10 +1864,6 @@
   </si>
   <si>
     <t>sign_para</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>standar_user</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1982,27 +1887,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>conv-user:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快捷签约人信息</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷签约人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv_user</t>
+    <t>sign_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求查询码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查询码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查询码，批量传参时，该字段需要传入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查询码，批量传参时，该字段需要传入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个签约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量签约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0504</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个签约-同步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2024,30 +1957,27 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> sign_detail_stard</t>
+      <t xml:space="preserve"> sign_info</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快捷签约信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sign_detail_stard </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pub_info</t>
-    </r>
+    <t>印章编码,如果是企业类型，该字段必传，如果个人并且没有user_id的话，动态创建该数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约详细内容,里边可以是多个sign_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2056,60 +1986,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>指的是在每份合同里边都需要签约的签约人和签约参数</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_para</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里只能是标准模式的数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是签约参数，这个参数会被下面批量的每个签约用户使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>standar_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>or</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量的签约人，这里可以是标准签约人，也可以是快捷签约人,由签约模式决定接收的参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回成功或者失败，如果成功，返回回执</t>
+      <t>签约人</t>
     </r>
     <r>
       <rPr>
@@ -2129,7 +2006,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>之后根据该回执进行异步通知（注：必须返回成功列表和失败列表，成功列表必须每份都有手机号或者</t>
+      <t>如果是企业类型，该字段必传，如果是个人类型，该字段不必须传，如果该字段没有值，那么会直接只用下面的手机号等字段来直接创建用户</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个签约-异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：异步消息收到之后，存入</t>
     </r>
     <r>
       <rPr>
@@ -2139,7 +2037,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>user_id</t>
+      <t>mogodb</t>
     </r>
     <r>
       <rPr>
@@ -2149,7 +2047,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，合同</t>
+      <t>中，以</t>
     </r>
     <r>
       <rPr>
@@ -2159,7 +2057,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>id,</t>
+      <t>msg_id(uuid</t>
     </r>
     <r>
       <rPr>
@@ -2169,7 +2067,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>如果有保全服务，还需要返回合同</t>
+      <t>形式为主键</t>
     </r>
     <r>
       <rPr>
@@ -2179,7 +2077,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>url,</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -2189,7 +2087,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>失败的必须有手机号或者</t>
+      <t>，然后还要存储消息体的内容</t>
     </r>
     <r>
       <rPr>
@@ -2199,7 +2097,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>user_id</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2209,48 +2107,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_conv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_stard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约详细内容,可以多个，里边必须是sign_stard的形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_stard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约详细内容,可以多个，企业必须是sign_stard的形式，而个人则可以使sign_conv的形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_conv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约详细内容,里边包括 pub_info 和 user_list两个结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>至于这个的数量限制，我们可以先定义为</t>
+      <t>和对应的开发者的</t>
     </r>
     <r>
       <rPr>
@@ -2260,18 +2117,80 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>100</t>
+      <t>app_id</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端递过来的查询码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时先不实现，系统直接保全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容/二选一，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容/二选一，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量签约-异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_sign_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_sign_para</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约详细内容,里边包括 pub_sign_list(共同签署信息,对应多个sign_info) 和 pub_sign_para(不同签署人的共同的签署参数，对应到sign_para即可)，sign_user_list(不同的签署人信息,需要指定query_code,对应到sign_user,至于批量传输的个数，我们可以定义为100个先)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_user_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id，后续通知时，以该msg_id为主键来通知，只通知处理失败的内容，成功的不再通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id，后续通知时，以该msg_id为主键来通知，只通知处理失败的内容，成功的不再通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时支持合同模板/直接文件流模式（暂时先不实现），同时支持直接保全/无需保全模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时支持合同模板/直接文件流模式（暂时先不实现），同时支持直接保全/无需保全模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2347,7 +2266,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2357,12 +2276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2401,7 +2314,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2435,22 +2348,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9652,7 +9566,7 @@
         <v>42677</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -9666,7 +9580,7 @@
   <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9679,10 +9593,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9711,7 +9625,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -9721,40 +9635,40 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1">
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -9816,7 +9730,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -9826,23 +9740,23 @@
     <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="69">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -9858,10 +9772,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9874,10 +9788,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9906,7 +9820,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -9916,80 +9830,84 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="27.75">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" ht="27.75">
       <c r="B10" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1">
+      <c r="B11" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="9" customFormat="1"/>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1"/>
     <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -10009,83 +9927,99 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="9" customFormat="1"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
     <row r="18" spans="1:5" s="9" customFormat="1"/>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
+    <row r="19" spans="1:5" s="9" customFormat="1"/>
     <row r="20" spans="1:5">
-      <c r="A20" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="9" customFormat="1">
+      <c r="A21" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="28.5">
-      <c r="B23" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9" t="s">
-        <v>216</v>
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="9" customFormat="1">
+      <c r="B23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.5">
+      <c r="B24" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="9" customFormat="1">
+      <c r="B25" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E11" location="'附录-sign_stard'!A1" display="sign_stard"/>
+    <hyperlink ref="E12" location="'附录-sign_info'!A1" display="sign_info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10108,17 +10042,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="9"/>
@@ -10128,7 +10061,6 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="9"/>
@@ -10138,7 +10070,6 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="14"/>
@@ -10148,11 +10079,10 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -10160,121 +10090,114 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:8" ht="27.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="27.75">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="41.25">
-      <c r="A12" s="9"/>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1">
       <c r="B12" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27.75">
       <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="9"/>
@@ -10284,9 +10207,8 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -10294,9 +10216,8 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -10304,9 +10225,8 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -10314,9 +10234,8 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -10324,95 +10243,81 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="14" t="s">
-        <v>123</v>
-      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" s="23" customFormat="1">
-      <c r="B23" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" s="17" customFormat="1" ht="41.25">
+      <c r="B24" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>207</v>
+      <c r="B25" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="B26" s="14"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -10420,21 +10325,17 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="9" t="s">
-        <v>216</v>
-      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -10442,12 +10343,20 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E12" location="'附录-sign_conv'!A1" display="sign_conv"/>
+    <hyperlink ref="E13" location="'附录-sign_info'!A1" display="sign_info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10455,10 +10364,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10471,10 +10380,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -10511,7 +10420,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -10523,16 +10432,16 @@
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -10540,13 +10449,13 @@
     <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -10555,28 +10464,28 @@
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="27.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -10584,43 +10493,42 @@
     </row>
     <row r="11" spans="1:7" ht="69.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>160</v>
+      <c r="B11" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="69.75" customHeight="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="39" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="16" t="s">
+        <v>245</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -10674,9 +10582,7 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -10685,43 +10591,45 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A21" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="84">
-      <c r="B22" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1" ht="41.25">
+      <c r="B23" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="5"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -10755,9 +10663,7 @@
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -10765,16 +10671,28 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E11" location="'附录-pub_info'!A1" display="pub_info"/>
-    <hyperlink ref="E12" location="'附录-user_list'!A1" display="user_list"/>
+    <hyperlink ref="E11" location="'附录-sign_info'!A1" display="pub_sign_list"/>
+    <hyperlink ref="E12" location="'附录-sign_para'!A1" display="pub_sign_para"/>
+    <hyperlink ref="E13" location="'附录-sign_user'!A1" display="sign_user_list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10784,7 +10702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -10810,8 +10728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10822,15 +10740,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -10838,7 +10756,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -10846,7 +10764,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
@@ -10854,7 +10772,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
@@ -10862,7 +10780,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
@@ -10870,7 +10788,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
@@ -10878,7 +10796,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
@@ -10886,7 +10804,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
@@ -10894,7 +10812,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B10" s="12">
         <v>8</v>
@@ -10902,7 +10820,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B11" s="12">
         <v>9</v>
@@ -10910,137 +10828,137 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -11048,7 +10966,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -11057,17 +10975,17 @@
     <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -11075,21 +10993,22 @@
     <row r="32" spans="1:4">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="14" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11097,9 +11016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -11111,57 +11028,57 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1"/>
     <row r="4" spans="1:5">
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1">
-      <c r="B5" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1">
+      <c r="B5" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="C5" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="16" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B6" location="'附录-sign_para'!A1" display="sign_para"/>
-    <hyperlink ref="B5" location="'附录-standar_user'!A1" display="standar_user"/>
+    <hyperlink ref="B5" location="'附录-sign_user'!A1" display="sign_user"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11169,341 +11086,157 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I11"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="46.75" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="9"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1"/>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1">
+      <c r="B5" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="55.5" customHeight="1">
+      <c r="B6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1">
+      <c r="B7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1">
+      <c r="B8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="9" customFormat="1">
+      <c r="B9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:9" s="9" customFormat="1">
-      <c r="C5" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="9"/>
-      <c r="C6" s="16" t="s">
+      <c r="D9" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="9" customFormat="1">
+      <c r="B10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1" ht="27.75">
+      <c r="B11" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="41.25">
+      <c r="B12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="41.25">
+      <c r="B13" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C6" location="'附录-sign_para'!A1" display="sign_para"/>
-    <hyperlink ref="C5" location="'附录-conv-user'!A1" display="conv_user"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E7"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1"/>
-    <row r="4" spans="1:5">
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="29.25" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" s="9"/>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="14"/>
-      <c r="D6" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="C7" s="14"/>
-      <c r="D7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="14"/>
-      <c r="D8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11516,91 +11249,91 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="46.5" customHeight="1">
       <c r="C5" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="C9" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -11609,137 +11342,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A58" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.75">
-      <c r="C5" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1"/>
-    <row r="7" spans="1:6" s="9" customFormat="1"/>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1"/>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C4" location="'附录-sign_detail_stard'!A1" display="sign_detail_stard "/>
-    <hyperlink ref="C5" location="'附录-sign_para'!A1" display="sign_para"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="B2" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C3" location="'附录-standar_user'!A1" display="standar_user"/>
-    <hyperlink ref="C5" location="'附录-conv-user'!A1" display="conv_user"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:I64"/>
+  <dimension ref="C4:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11771,11 +11395,11 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="19.5" customHeight="1">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
@@ -11786,7 +11410,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C6" s="17"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
@@ -11794,32 +11418,32 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="3:9" ht="20.25" customHeight="1">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -11827,9 +11451,9 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -11840,12 +11464,12 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -11853,22 +11477,22 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C12" s="17"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -11879,14 +11503,14 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -11894,25 +11518,25 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C14" s="18"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C15" s="18"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -11927,179 +11551,151 @@
         <v>21</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="3:7" ht="27" customHeight="1">
-      <c r="C17" s="18" t="s">
+      <c r="G16" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="44.25" customHeight="1">
+      <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>218</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="17.25" customHeight="1">
-      <c r="C18" s="18"/>
-      <c r="D18" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="41.25" customHeight="1">
+      <c r="C18" s="20"/>
+      <c r="D18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="48" customHeight="1">
+      <c r="C19" s="20"/>
+      <c r="D19" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G19" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="20"/>
+      <c r="D20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="20"/>
+      <c r="D21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="20"/>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="20"/>
+      <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="18"/>
-      <c r="D19" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="18"/>
-      <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="18"/>
-      <c r="D21" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="18"/>
-      <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="18"/>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="18"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="3" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="18"/>
-      <c r="D25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="18"/>
-      <c r="D26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="18"/>
-      <c r="D27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="3"/>
@@ -12247,18 +11843,12 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="3:7">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="3:7">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="3:7">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="3:7">
@@ -12266,20 +11856,11 @@
     </row>
     <row r="61" spans="3:7">
       <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="3:7">
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="3:7">
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="3:7">
-      <c r="G64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="C17:C24"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C13:C15"/>
   </mergeCells>
@@ -12293,8 +11874,8 @@
     <hyperlink ref="D14" location="'0302'!A1" display="0302"/>
     <hyperlink ref="D16" location="'0401'!A1" display="0401"/>
     <hyperlink ref="D17" location="'0501'!A1" display="0501"/>
+    <hyperlink ref="D18" location="'0502'!A1" display="0502"/>
     <hyperlink ref="D19" location="'0503'!A1" display="0503"/>
-    <hyperlink ref="D21" location="'0505'!A1" display="0505"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12320,10 +11901,10 @@
     <row r="1" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12334,77 +11915,77 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12412,40 +11993,40 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27.75">
       <c r="B22" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -12471,10 +12052,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12503,7 +12084,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -12513,67 +12094,67 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -12628,7 +12209,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -12638,23 +12219,23 @@
     <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -12696,10 +12277,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12728,7 +12309,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -12738,28 +12319,28 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="14"/>
     </row>
@@ -12835,7 +12416,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -12845,23 +12426,23 @@
     <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -12869,25 +12450,25 @@
     <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -12918,10 +12499,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12950,7 +12531,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -12960,107 +12541,107 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1">
       <c r="B12" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="84">
       <c r="B13" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1">
       <c r="A14" s="14"/>
       <c r="B14" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1">
       <c r="B15" s="9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1"/>
@@ -13068,63 +12649,63 @@
     <row r="18" spans="1:6" s="9" customFormat="1"/>
     <row r="19" spans="1:6" s="9" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1">
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1">
       <c r="B21" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1">
       <c r="B22" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1">
       <c r="A30" s="9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -13154,10 +12735,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -13186,7 +12767,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -13196,54 +12777,54 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -13305,7 +12886,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -13315,23 +12896,23 @@
     <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -13368,10 +12949,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -13400,7 +12981,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -13410,54 +12991,54 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -13519,7 +13100,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -13529,14 +13110,14 @@
     <row r="20" spans="1:5">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/电子签约平台/流程梳理/签约模式及API定义.xlsx
+++ b/电子签约平台/流程梳理/签约模式及API定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -20,18 +20,19 @@
     <sheet name="0501" sheetId="14" r:id="rId11"/>
     <sheet name="0502" sheetId="16" r:id="rId12"/>
     <sheet name="0503" sheetId="18" r:id="rId13"/>
-    <sheet name="附录-证书检验及pfx生成" sheetId="10" r:id="rId14"/>
-    <sheet name="附录-证件类型" sheetId="8" r:id="rId15"/>
-    <sheet name="附录-sign_info" sheetId="15" r:id="rId16"/>
-    <sheet name="附录-sign_user" sheetId="22" r:id="rId17"/>
-    <sheet name="附录-sign_para" sheetId="19" r:id="rId18"/>
+    <sheet name="个人用户接口流程" sheetId="23" r:id="rId14"/>
+    <sheet name="企业用户接口流程" sheetId="24" r:id="rId15"/>
+    <sheet name="附录-证件类型" sheetId="8" r:id="rId16"/>
+    <sheet name="附录-sign_info" sheetId="15" r:id="rId17"/>
+    <sheet name="附录-sign_user" sheetId="22" r:id="rId18"/>
+    <sheet name="附录-sign_para" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="253">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2193,12 +2194,145 @@
     <t>同时支持合同模板/直接文件流模式（暂时先不实现），同时支持直接保全/无需保全模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>seal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库中找到对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>seal_code,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且找到里边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pfx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seal_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的形式生成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seal_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的形式生成</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2265,6 +2399,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2314,7 +2461,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2350,6 +2497,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2362,8 +2512,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6991,16 +7141,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>494910</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>113912</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142485</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660530</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>104387</xdr:rowOff>
+      <xdr:rowOff>68230</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7009,12 +7159,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10846058" y="113912"/>
+          <a:off x="4429125" y="66675"/>
           <a:ext cx="1717805" cy="544480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7038,22 +7191,29 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>企业</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>--</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>获得用户传入的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>user_id</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调用签章接口时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>个人用户</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7061,26 +7221,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>631761</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19439</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472654</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19438</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>87474</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487428</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6152373" y="19439"/>
-          <a:ext cx="77754" cy="2838061"/>
+        <a:xfrm flipH="1">
+          <a:off x="5273254" y="611155"/>
+          <a:ext cx="14774" cy="446121"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7108,26 +7271,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60326</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>592883</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="菱形 14"/>
+        <xdr:cNvPr id="9" name="菱形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9464675" y="2778126"/>
-          <a:ext cx="2946401" cy="774700"/>
+          <a:off x="3781425" y="1057276"/>
+          <a:ext cx="2983658" cy="1514474"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -7155,181 +7318,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>user_seal</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>有没有</a:t>
+            <a:t>中判断有没有</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>pfx_data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>字段</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>660918</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>165229</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="15" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8251760" y="3119923"/>
-          <a:ext cx="41308" cy="1470869"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>429791</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85908</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>391691</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114482</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="矩形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7330556" y="2301928"/>
-          <a:ext cx="2032130" cy="951916"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>到数据库</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>库</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>latform-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>esc-pfx</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>seal_code</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7337,20 +7337,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="323343"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8680450" y="2981324"/>
+          <a:off x="3152775" y="1676400"/>
           <a:ext cx="325730" cy="323343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7389,110 +7389,28 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="矩形 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10125076" y="5648325"/>
-          <a:ext cx="2019300" cy="1123950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>根据企业的详细信息，调用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>cfca</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ra</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>部分接口</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-2101</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>（证书申请）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="2"/>
-          <a:endCxn id="49" idx="0"/>
+          <a:stCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11134726" y="6772275"/>
-          <a:ext cx="9524" cy="742949"/>
+        <a:xfrm flipH="1">
+          <a:off x="3028950" y="1814513"/>
+          <a:ext cx="752475" cy="14287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7520,728 +7438,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326183</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="矩形 48"/>
+        <xdr:cNvPr id="15" name="菱形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="7515224"/>
-          <a:ext cx="2019300" cy="1266825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>将接口返回的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>serial_no</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>starttime</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>endtime</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>等信息存入表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ecs_user_ca</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>中，如果是企业，同时存入缓存中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12151</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19439</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>77755</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直接箭头连接符 51"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11053375" y="3753693"/>
-          <a:ext cx="7288" cy="1679445"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="TextBox 60"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10779125" y="4127500"/>
-          <a:ext cx="325730" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>无</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="矩形 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10096500" y="9563100"/>
-          <a:ext cx="2019300" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>调用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>kt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>系统的接口</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-3.1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>产生私钥及</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>P10</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直接箭头连接符 63"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11115675" y="10725150"/>
-          <a:ext cx="9524" cy="733424"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="矩形 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10125075" y="11487150"/>
-          <a:ext cx="2019300" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>调用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>kt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>系统的接口</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-3.2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>生成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pfx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>证书</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11115675" y="12582525"/>
-          <a:ext cx="9524" cy="742949"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="矩形 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="13354050"/>
-          <a:ext cx="2019300" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>将得到的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>pfx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>数据存储到库</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>-platfom</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>esc-pfx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>中，如果是企业，同时将该数据放入缓存中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>30162</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直接箭头连接符 67"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7947025" y="3168650"/>
-          <a:ext cx="1562100" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>464392</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>153567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>426292</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134517</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="矩形 71"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5985004" y="2738924"/>
-          <a:ext cx="2032130" cy="1088960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>判断该数据对应的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>endtime</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>字段，看看证书是否到期</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>474306</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>86126</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>426682</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>67076</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="菱形 72"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5994918" y="4148830"/>
-          <a:ext cx="2022606" cy="1088960"/>
+          <a:off x="1171575" y="1304924"/>
+          <a:ext cx="1897808" cy="1047751"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -8270,7 +7486,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>过期判断</a:t>
+            <a:t>判断是否过期</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8279,29 +7495,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>100304</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134517</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>105456</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>86126</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直接箭头连接符 73"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="72" idx="2"/>
-          <a:endCxn id="73" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7001069" y="3827884"/>
-          <a:ext cx="5152" cy="320946"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="628650" y="1809750"/>
+          <a:ext cx="514351" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8329,28 +7542,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>236181</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76600</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>474306</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76601</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84171</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直接箭头连接符 77"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="73" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5066717" y="4693309"/>
-          <a:ext cx="928201" cy="1"/>
+        <a:xfrm>
+          <a:off x="666750" y="1838325"/>
+          <a:ext cx="19050" cy="2046321"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8378,21 +7589,21 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>350480</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133156</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="847725" cy="275717"/>
+    <xdr:ext cx="325730" cy="552450"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="TextBox 81"/>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181016" y="4565197"/>
-          <a:ext cx="847725" cy="275717"/>
+          <a:off x="733425" y="1628775"/>
+          <a:ext cx="325730" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8421,7 +7632,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>已经过期</a:t>
+            <a:t>过期</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8431,25 +7642,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>245123</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>55413</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>207023</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>36363</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="矩形 83"/>
+        <xdr:cNvPr id="21" name="矩形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3005429" y="4118117"/>
-          <a:ext cx="2032130" cy="1088960"/>
+          <a:off x="57150" y="3905250"/>
+          <a:ext cx="1314450" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8486,7 +7697,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>部分关于证书的延期的相关接口</a:t>
+            <a:t>部分关于证书的延期的相关接口，得到合法的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>信息</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8495,29 +7714,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>92725</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>67076</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>592883</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>105456</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87478</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直接箭头连接符 84"/>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="73" idx="2"/>
-          <a:endCxn id="120" idx="0"/>
+          <a:stCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4233184" y="6899806"/>
-          <a:ext cx="12731" cy="574407"/>
+        <a:xfrm flipV="1">
+          <a:off x="6765083" y="1809750"/>
+          <a:ext cx="940642" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8545,559 +7763,20 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>408409</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>126158</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="847725" cy="283492"/>
+    <xdr:ext cx="325730" cy="323343"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="TextBox 85"/>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619098" y="5365103"/>
-          <a:ext cx="847725" cy="283492"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>不过期</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666556</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>670637</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>126352</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直接箭头连接符 90"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4116939" y="5237584"/>
-          <a:ext cx="4081" cy="2460171"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19439</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>105748</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>532623</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直接箭头连接符 91"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4159898" y="7677151"/>
-          <a:ext cx="6033796" cy="30324"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>165230</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>48597</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>174754</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>29546</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直接箭头连接符 117"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8446148" y="8543342"/>
-          <a:ext cx="9524" cy="719622"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>456813</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87478</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>418713</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19443</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="矩形 119"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3217119" y="7474213"/>
-          <a:ext cx="2032130" cy="670638"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>读取</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>pfx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>数据给接口使用</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>592882</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>240458</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175143</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="矩形 123"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5423418" y="184668"/>
-          <a:ext cx="1717805" cy="544480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>个人</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>--</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>获得用户传入的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>user_id</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>663737</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>33920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>77755</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="直接箭头连接符 126"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="132" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11704961" y="658392"/>
-          <a:ext cx="60260" cy="1635383"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>77755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>145596</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="菱形 131"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10273392" y="2293775"/>
-          <a:ext cx="2983658" cy="1030256"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>缓存中判断有没有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>pfx_data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>字段</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>77755</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>429791</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38877</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="直接箭头连接符 138"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="17" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6288444" y="2777886"/>
-          <a:ext cx="1042112" cy="31017"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>408215</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>27298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>576360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>48596</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="直接箭头连接符 143"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9379210" y="2797324"/>
-          <a:ext cx="858221" cy="21298"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38879</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>37018</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="323343"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="TextBox 146"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9699950" y="2622375"/>
+          <a:off x="6984158" y="1657350"/>
           <a:ext cx="325730" cy="323343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9127,7 +7806,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>有</a:t>
+            <a:t>无</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9136,26 +7815,127 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>456811</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>165230</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>418711</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>97195</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63079</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2105025" y="2352675"/>
+          <a:ext cx="15454" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="323343"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="2533650"/>
+          <a:ext cx="771525" cy="323343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不过期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="矩形 150"/>
+        <xdr:cNvPr id="31" name="矩形 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3217117" y="8475307"/>
-          <a:ext cx="2032130" cy="670638"/>
+          <a:off x="1247776" y="3076575"/>
+          <a:ext cx="1695450" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9184,7 +7964,1108 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>如无缓存，并且是企业，进行缓存的存储</a:t>
+            <a:t>返回印章数据供签名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139279</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7683079" y="1790700"/>
+          <a:ext cx="13121" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508131</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705601" y="2600325"/>
+          <a:ext cx="2032130" cy="1088960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据企业的详细信息，调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cfca</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>部分接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-2101</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（证书申请）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180004</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189528</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>65508</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7723804" y="3689285"/>
+          <a:ext cx="9524" cy="719623"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>555755</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="4325711"/>
+          <a:ext cx="2032130" cy="1069910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>kt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统的接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-3.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>产生私钥及</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>151428</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160952</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143068</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7695228" y="5405146"/>
+          <a:ext cx="9524" cy="710097"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>631955</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>117605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="6105719"/>
+          <a:ext cx="2032130" cy="1069911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>kt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统的接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-3.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>证书</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180003</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>189527</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109634</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7723803" y="7166105"/>
+          <a:ext cx="9524" cy="725454"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>122853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622430</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>122270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="7904778"/>
+          <a:ext cx="2032130" cy="1085267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>seal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的制作人名章接口（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）得到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>seal_code,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>并将该数据存入表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>esc_user_seal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="4505325"/>
+          <a:ext cx="5524500" cy="14289"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>308105</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="180975"/>
+          <a:ext cx="1717805" cy="544480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调创建印章接口时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>企业用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135003</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139279</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7678803" y="725455"/>
+          <a:ext cx="4276" cy="484221"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259508</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="菱形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="1209676"/>
+          <a:ext cx="2983658" cy="933449"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>user_seal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中判断有没有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>seal_code</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5400676" y="1676401"/>
+          <a:ext cx="790574" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640508</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="菱形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="1152525"/>
+          <a:ext cx="1897808" cy="1047751"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>判断是否过期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3019425" y="1685926"/>
+          <a:ext cx="19050" cy="3219449"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="552450"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="1476376"/>
+          <a:ext cx="325730" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>过期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="4953001"/>
+          <a:ext cx="1314450" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>部分关于证书的延期的相关接口，得到合法的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>信息</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9194,28 +9075,1264 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>92723</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19443</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>92725</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>165230</xdr:rowOff>
+      <xdr:colOff>377404</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="152" name="直接箭头连接符 151"/>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="120" idx="2"/>
-          <a:endCxn id="151" idx="0"/>
+          <a:stCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4233182" y="8144851"/>
-          <a:ext cx="2" cy="330456"/>
+          <a:off x="4476750" y="2200276"/>
+          <a:ext cx="15454" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="323343"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="2381251"/>
+          <a:ext cx="771525" cy="323343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不过期</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619501" y="2924176"/>
+          <a:ext cx="1695450" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>seal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>库中找到对应的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>seal_code,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>并且找到里边的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3028950" y="1676401"/>
+          <a:ext cx="514350" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="552450"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="1409700"/>
+          <a:ext cx="325730" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4467225" y="3581401"/>
+          <a:ext cx="1" cy="5619749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241430</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="5000625"/>
+          <a:ext cx="2032130" cy="1069910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>kt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统的接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-3.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>产生私钥及</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>P10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="5486401"/>
+          <a:ext cx="5372100" cy="11079"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>618153</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>627677</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100497</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10219353" y="6096000"/>
+          <a:ext cx="9524" cy="710097"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>222380</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>75034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="6787048"/>
+          <a:ext cx="2032130" cy="1069911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>kt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统的接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-3.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>证书</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>570528</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>580052</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>67063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10171728" y="7856959"/>
+          <a:ext cx="9524" cy="725454"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>165424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="10481582"/>
+          <a:ext cx="1962149" cy="1085267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>seal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的普通制章接口（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>seal_code,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>并将该数据存入表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>esc_user_seal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>87281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4524375" y="9136031"/>
+          <a:ext cx="4610100" cy="55594"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>193805</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>79311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134475" y="8601075"/>
+          <a:ext cx="2032130" cy="1069911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>seal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的自助生成图片接口（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7.8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）得到制章图片</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>96804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="9686925"/>
+          <a:ext cx="9524" cy="725454"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>259508</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9174908" y="1666875"/>
+          <a:ext cx="950167" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="447675"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9315450" y="1419225"/>
+          <a:ext cx="238125" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>无</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203330</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="2114550"/>
+          <a:ext cx="2032130" cy="1069910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>根据企业的详细信息，调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cfca</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部分接口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-2101</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（证书申请）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558865</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="1695450"/>
+          <a:ext cx="6415" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558865</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>596965</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10160065" y="3184460"/>
+          <a:ext cx="38100" cy="1825690"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10283,7 +11400,7 @@
       <c r="B24" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="19" t="s">
         <v>246</v>
       </c>
       <c r="D24" s="18"/>
@@ -10493,13 +11610,13 @@
     </row>
     <row r="11" spans="1:7" ht="69.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>151</v>
       </c>
       <c r="E11" s="16" t="s">
@@ -10509,18 +11626,18 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" ht="69.75" customHeight="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="39" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="16" t="s">
         <v>245</v>
       </c>
@@ -10700,23 +11817,47 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1"/>
-    <row r="2" s="9" customFormat="1"/>
-    <row r="3" s="9" customFormat="1"/>
-    <row r="4" s="9" customFormat="1"/>
-    <row r="5" s="9" customFormat="1"/>
-    <row r="6" s="9" customFormat="1"/>
-    <row r="7" s="9" customFormat="1"/>
-    <row r="8" s="9" customFormat="1"/>
-    <row r="9" s="9" customFormat="1"/>
+    <row r="57" spans="1:1">
+      <c r="A57" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A15:P70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="15" spans="16:16" ht="15">
+      <c r="P15" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10724,7 +11865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -11012,7 +12153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E10"/>
   <sheetViews>
@@ -11084,7 +12225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E13"/>
   <sheetViews>
@@ -11191,7 +12332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" ht="27.75">
+    <row r="11" spans="1:5" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
         <v>211</v>
       </c>
@@ -11202,7 +12343,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41.25">
+    <row r="12" spans="1:5" ht="27.75">
       <c r="B12" s="9" t="s">
         <v>120</v>
       </c>
@@ -11214,7 +12355,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="41.25">
+    <row r="13" spans="1:5">
       <c r="B13" s="9" t="s">
         <v>211</v>
       </c>
@@ -11231,7 +12372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -11362,7 +12503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -11395,7 +12536,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="19.5" customHeight="1">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -11410,7 +12551,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
@@ -11423,7 +12564,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
@@ -11436,7 +12577,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="3:9" ht="20.25" customHeight="1">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -11451,7 +12592,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="15" t="s">
         <v>146</v>
       </c>
@@ -11464,7 +12605,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
@@ -11477,7 +12618,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
@@ -11490,7 +12631,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="3" t="s">
         <v>162</v>
       </c>
@@ -11503,7 +12644,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -11518,7 +12659,7 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C14" s="20"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="15" t="s">
         <v>161</v>
       </c>
@@ -11531,7 +12672,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
@@ -11561,7 +12702,7 @@
       </c>
     </row>
     <row r="17" spans="3:7" ht="44.25" customHeight="1">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -11578,7 +12719,7 @@
       </c>
     </row>
     <row r="18" spans="3:7" ht="41.25" customHeight="1">
-      <c r="C18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="16" t="s">
         <v>23</v>
       </c>
@@ -11593,7 +12734,7 @@
       </c>
     </row>
     <row r="19" spans="3:7" ht="48" customHeight="1">
-      <c r="C19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="16" t="s">
         <v>203</v>
       </c>
@@ -11608,7 +12749,7 @@
       </c>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="3" t="s">
         <v>220</v>
       </c>
@@ -11623,7 +12764,7 @@
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="20"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>204</v>
       </c>
@@ -11638,7 +12779,7 @@
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="20"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
@@ -11653,7 +12794,7 @@
       </c>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
@@ -11668,7 +12809,7 @@
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="3" t="s">
         <v>221</v>
       </c>

--- a/电子签约平台/流程梳理/签约模式及API定义.xlsx
+++ b/电子签约平台/流程梳理/签约模式及API定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -12,41 +12,37 @@
     <sheet name="目录" sheetId="4" r:id="rId3"/>
     <sheet name="0101" sheetId="1" r:id="rId4"/>
     <sheet name="0102" sheetId="2" r:id="rId5"/>
-    <sheet name="0201" sheetId="3" r:id="rId6"/>
-    <sheet name="0202" sheetId="9" r:id="rId7"/>
-    <sheet name="0301" sheetId="11" r:id="rId8"/>
-    <sheet name="0302" sheetId="12" r:id="rId9"/>
-    <sheet name="0401" sheetId="13" r:id="rId10"/>
-    <sheet name="0501" sheetId="14" r:id="rId11"/>
-    <sheet name="0502" sheetId="16" r:id="rId12"/>
-    <sheet name="0503" sheetId="18" r:id="rId13"/>
-    <sheet name="个人用户接口流程" sheetId="23" r:id="rId14"/>
-    <sheet name="企业用户接口流程" sheetId="24" r:id="rId15"/>
-    <sheet name="附录-证件类型" sheetId="8" r:id="rId16"/>
-    <sheet name="附录-sign_info" sheetId="15" r:id="rId17"/>
-    <sheet name="附录-sign_user" sheetId="22" r:id="rId18"/>
-    <sheet name="附录-sign_para" sheetId="19" r:id="rId19"/>
+    <sheet name="0103" sheetId="25" r:id="rId6"/>
+    <sheet name="0105" sheetId="26" r:id="rId7"/>
+    <sheet name="0201" sheetId="3" r:id="rId8"/>
+    <sheet name="0202" sheetId="9" r:id="rId9"/>
+    <sheet name="0203" sheetId="28" r:id="rId10"/>
+    <sheet name="0205" sheetId="27" r:id="rId11"/>
+    <sheet name="0301" sheetId="11" r:id="rId12"/>
+    <sheet name="0302" sheetId="12" r:id="rId13"/>
+    <sheet name="0401" sheetId="13" r:id="rId14"/>
+    <sheet name="0501" sheetId="14" r:id="rId15"/>
+    <sheet name="0502" sheetId="16" r:id="rId16"/>
+    <sheet name="0503" sheetId="18" r:id="rId17"/>
+    <sheet name="个人用户接口流程" sheetId="23" r:id="rId18"/>
+    <sheet name="企业用户接口流程" sheetId="24" r:id="rId19"/>
+    <sheet name="附录-证件类型" sheetId="8" r:id="rId20"/>
+    <sheet name="附录-sign_info" sheetId="15" r:id="rId21"/>
+    <sheet name="附录-sign_user" sheetId="22" r:id="rId22"/>
+    <sheet name="附录-sign_para" sheetId="19" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="288">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建个人用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建企业用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -121,10 +117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -203,14 +195,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>印章修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同模板上传</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -259,10 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>批量创建个人用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -308,10 +288,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建个人用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -585,10 +561,6 @@
       </rPr>
       <t>id</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建企业用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -928,162 +900,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据该编码和其他的信息，自己操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>seal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>seal_image</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表生成一个印模（插入一条记录），</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>得到该印模的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>code,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>然后使用该印模的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cfca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>makeSeal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，其中的印模编码，传入上面得到的印模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>code</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1093,190 +909,6 @@
   </si>
   <si>
     <t>0202</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注意，调用业务之前，先根据传入的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>userid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>platform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中，进行相关的操作，详细参照</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>附录</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书检验及</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>pfx</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生成</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>之后在库</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">platform </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>esc_pfx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中可以得到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pfx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1348,98 +980,6 @@
   </si>
   <si>
     <t>0205</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seal_flag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否同时创建个人签名，默认0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seal_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果同时创建个人签名，则该字段返回签名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>code</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：如果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>seal_flag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>true,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>则需要同时执行创建个人签名之后，再返回</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2325,6 +1865,538 @@
       </rPr>
       <t>的形式生成</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章密码，有印章id时该字段必传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新个人用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新企业用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询已授权用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psssword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码，接口调用时，系统先随机生成一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型，见附录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新个人用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新企业用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询已授权企业信息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章密码，接口时-系统生成随机的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，调用业务之前，具体业务流程，请参照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附录</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人用户接口流程</t>
+    </r>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意，调用业务之前，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关的操作，详细参照</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附录</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业用户接入流程</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>makeSeal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这样就会在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库生成一条对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seal_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业印章修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改企业印章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>updateSeal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户印章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章正文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效结束时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2500,6 +2572,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2511,9 +2586,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8414,6 +8486,72 @@
             </a:rPr>
             <a:t>）</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>同时存入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -9715,7 +9853,51 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>）</a:t>
+            <a:t>），同时调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>库的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pfx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表存入数据</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -10660,16 +10842,16 @@
   <sheetData>
     <row r="3" spans="4:7">
       <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="4:7">
@@ -10677,13 +10859,13 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4">
         <v>42677</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10693,6 +10875,972 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="153">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" s="9" customFormat="1">
+      <c r="B19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="9" customFormat="1">
+      <c r="B20" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="9" customFormat="1">
+      <c r="B21" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E21"/>
   <sheetViews>
@@ -10710,10 +11858,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -10742,7 +11890,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -10752,40 +11900,40 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1">
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -10847,7 +11995,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -10857,23 +12005,23 @@
     <row r="19" spans="1:5">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="69">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -10887,12 +12035,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10905,10 +12053,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -10937,7 +12085,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -10947,79 +12095,79 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="27.75">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" ht="27.75">
       <c r="B10" s="9" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1"/>
@@ -11062,7 +12210,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -11072,53 +12220,53 @@
     <row r="22" spans="1:5">
       <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1">
       <c r="B23" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="28.5">
       <c r="B24" s="14" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1">
       <c r="B25" s="14" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="9" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -11131,7 +12279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H31"/>
   <sheetViews>
@@ -11159,10 +12307,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -11199,7 +12347,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -11211,16 +12359,16 @@
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -11228,13 +12376,13 @@
     <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -11243,13 +12391,13 @@
     <row r="10" spans="1:8" ht="27.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -11258,13 +12406,13 @@
     <row r="11" spans="1:8" ht="27.75">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -11272,28 +12420,28 @@
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1">
       <c r="B12" s="9" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27.75">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -11372,7 +12520,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -11384,24 +12532,24 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="41.25">
       <c r="B24" s="18" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -11409,10 +12557,10 @@
     <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="14" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -11425,7 +12573,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="6"/>
@@ -11479,12 +12627,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11497,10 +12645,10 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11537,7 +12685,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -11549,16 +12697,16 @@
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -11566,13 +12714,13 @@
     <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -11581,13 +12729,13 @@
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -11596,13 +12744,13 @@
     <row r="10" spans="1:7" ht="27.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -11610,36 +12758,36 @@
     </row>
     <row r="11" spans="1:7" ht="69.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>151</v>
+      <c r="B11" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" ht="69.75" customHeight="1">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="16" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="39" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -11709,7 +12857,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -11721,24 +12869,24 @@
     <row r="22" spans="1:7">
       <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="41.25">
       <c r="B23" s="9" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -11790,7 +12938,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -11815,19 +12963,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="57" spans="1:1">
       <c r="A57" s="9" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -11838,648 +12986,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A15:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="15" spans="16:16" ht="15">
-      <c r="P15" s="24" t="s">
-        <v>250</v>
+      <c r="P15" s="20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1"/>
-    <row r="4" spans="1:5">
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1">
-      <c r="B5" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" location="'附录-sign_para'!A1" display="sign_para"/>
-    <hyperlink ref="B5" location="'附录-sign_user'!A1" display="sign_user"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="46.75" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1"/>
-    <row r="4" spans="1:5">
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="17" customFormat="1">
-      <c r="B5" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="55.5" customHeight="1">
-      <c r="B6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" s="9" customFormat="1">
-      <c r="B7" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" s="9" customFormat="1">
-      <c r="B8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="9" customFormat="1">
-      <c r="B9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1">
-      <c r="B10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="9" customFormat="1">
-      <c r="B11" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="27.75">
-      <c r="B12" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="44.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="46.5" customHeight="1">
-      <c r="C5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="C6" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="C7" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="C8" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="C9" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12499,12 +13029,641 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1"/>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1">
+      <c r="B5" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" location="'附录-sign_para'!A1" display="sign_para"/>
+    <hyperlink ref="B5" location="'附录-sign_user'!A1" display="sign_user"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="46.75" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1"/>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1">
+      <c r="B5" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="55.5" customHeight="1">
+      <c r="B6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1">
+      <c r="B7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1">
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="9" customFormat="1">
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="9" customFormat="1">
+      <c r="B10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1">
+      <c r="B11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27.75">
+      <c r="B12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1">
+      <c r="B13" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="46.5" customHeight="1">
+      <c r="C5" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="C7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="C8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="C9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:I61"/>
+  <dimension ref="C4:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12518,16 +13677,16 @@
   <sheetData>
     <row r="4" spans="3:9">
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>1</v>
@@ -12536,302 +13695,318 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="19.5" customHeight="1">
-      <c r="C5" s="20" t="s">
-        <v>16</v>
+      <c r="C5" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>134</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>252</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C6" s="20"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>242</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C7" s="20"/>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
+    <row r="7" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
+      <c r="C7" s="21"/>
+      <c r="D7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="3:9" ht="20.25" customHeight="1">
-      <c r="C8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>118</v>
+    <row r="8" spans="3:9" ht="24.75" customHeight="1">
+      <c r="C8" s="21"/>
+      <c r="D8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C9" s="20"/>
+    <row r="9" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
+      <c r="C9" s="21"/>
       <c r="D9" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>250</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C10" s="20"/>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
+    <row r="10" spans="3:9" ht="20.25" customHeight="1">
+      <c r="C10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C11" s="20"/>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
+      <c r="C11" s="21"/>
+      <c r="D11" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C12" s="20"/>
-      <c r="D12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    <row r="12" spans="3:9" ht="21.75" customHeight="1">
+      <c r="C12" s="21"/>
+      <c r="D12" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>160</v>
+    <row r="13" spans="3:9" ht="21.75" customHeight="1">
+      <c r="C13" s="21"/>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="3:9" ht="23.25" customHeight="1">
       <c r="C14" s="21"/>
       <c r="D14" s="15" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C16" s="22"/>
+      <c r="D16" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" ht="23.25" customHeight="1">
+      <c r="C17" s="22"/>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="3:7" ht="23.25" customHeight="1">
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="44.25" customHeight="1">
+      <c r="C19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="41.25" customHeight="1">
+      <c r="C20" s="22"/>
+      <c r="D20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="48" customHeight="1">
+      <c r="C21" s="22"/>
+      <c r="D21" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="22"/>
+      <c r="D22" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C15" s="21"/>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15" t="s">
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="22"/>
+      <c r="D23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="22"/>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="22"/>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="44.25" customHeight="1">
-      <c r="C17" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="G25" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="22"/>
+      <c r="D26" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="41.25" customHeight="1">
-      <c r="C18" s="21"/>
-      <c r="D18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="48" customHeight="1">
-      <c r="C19" s="21"/>
-      <c r="D19" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="21"/>
-      <c r="D20" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="21"/>
-      <c r="D21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="21"/>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="21"/>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="21"/>
-      <c r="D24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="3"/>
@@ -12984,9 +14159,13 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="3:7">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="3:7">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="3:7">
@@ -12998,25 +14177,35 @@
     <row r="61" spans="3:7">
       <c r="G61" s="5"/>
     </row>
+    <row r="62" spans="3:7">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="G63" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C5:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" location="'0101'!A1" display="0101"/>
     <hyperlink ref="D6" location="'0102'!A1" display="0102"/>
-    <hyperlink ref="D8" location="'0201'!A1" display="0201"/>
-    <hyperlink ref="D9" location="'0202'!A1" display="0202"/>
-    <hyperlink ref="D13" location="'0301'!A1" display="0301"/>
-    <hyperlink ref="D14" location="'0302'!A1" display="0302"/>
-    <hyperlink ref="D16" location="'0401'!A1" display="0401"/>
-    <hyperlink ref="D17" location="'0501'!A1" display="0501"/>
-    <hyperlink ref="D18" location="'0502'!A1" display="0502"/>
-    <hyperlink ref="D19" location="'0503'!A1" display="0503"/>
+    <hyperlink ref="D10" location="'0201'!A1" display="0201"/>
+    <hyperlink ref="D11" location="'0202'!A1" display="0202"/>
+    <hyperlink ref="D15" location="'0301'!A1" display="0301"/>
+    <hyperlink ref="D16" location="'0302'!A1" display="0302"/>
+    <hyperlink ref="D18" location="'0401'!A1" display="0401"/>
+    <hyperlink ref="D19" location="'0501'!A1" display="0501"/>
+    <hyperlink ref="D20" location="'0502'!A1" display="0502"/>
+    <hyperlink ref="D21" location="'0503'!A1" display="0503"/>
+    <hyperlink ref="D7" location="'0103'!A1" display="0103"/>
+    <hyperlink ref="D9" location="'0105'!A1" display="0105"/>
+    <hyperlink ref="D12" location="'0203'!A1" display="0203"/>
+    <hyperlink ref="D14" location="'0205'!A1" display="0205"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13025,10 +14214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13042,10 +14231,10 @@
     <row r="1" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13056,118 +14245,94 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" t="s">
-        <v>57</v>
+      <c r="B9" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
+      <c r="B10" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>111</v>
+        <v>240</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27.75">
+      <c r="B11" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="27.75">
-      <c r="B22" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="9" t="s">
-        <v>168</v>
+      <c r="A14" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -13179,221 +14344,227 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="9"/>
       <c r="B3" s="14"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="14"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>61</v>
+        <v>256</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="14" t="s">
-        <v>114</v>
-      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="9"/>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13403,10 +14574,439 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A3:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="A3:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1">
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" s="9" customFormat="1">
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1">
+      <c r="B18" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13418,10 +15018,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -13450,7 +15050,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -13460,36 +15060,42 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="27.75">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
@@ -13557,7 +15163,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -13567,67 +15173,65 @@
     <row r="20" spans="1:6">
       <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>148</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F28" location="'附录-证书检验及pfx生成'!A1" display="附录-证书检验及pfx生成"/>
+    <hyperlink ref="D29" location="个人用户接口流程!A1" display="附录-个人用户接口流程"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F31"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13640,10 +15244,10 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -13672,7 +15276,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -13682,594 +15286,184 @@
     <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>129</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1">
       <c r="B12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1">
+      <c r="B13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" ht="84">
+      <c r="B14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1">
+      <c r="B16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="84">
-      <c r="B13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="9" customFormat="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1">
-      <c r="B15" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="9" customFormat="1"/>
-    <row r="17" spans="1:6" s="9" customFormat="1"/>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1">
+      <c r="B17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" s="9" customFormat="1"/>
-    <row r="19" spans="1:6" s="9" customFormat="1">
-      <c r="A19" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1"/>
     <row r="20" spans="1:6" s="9" customFormat="1">
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
+      <c r="A20" s="14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1">
-      <c r="B21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>122</v>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1">
       <c r="B22" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1"/>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1">
-      <c r="A30" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="A30" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F30" location="'附录-证书检验及pfx生成'!A1" display="附录-证书检验及pfx生成"/>
+    <hyperlink ref="D30" location="企业用户接口流程!A1" display="附录-企业用户接入流程"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/电子签约平台/流程梳理/签约模式及API定义.xlsx
+++ b/电子签约平台/流程梳理/签约模式及API定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="1" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -14,29 +14,30 @@
     <sheet name="0102" sheetId="2" r:id="rId5"/>
     <sheet name="0103" sheetId="25" r:id="rId6"/>
     <sheet name="0105" sheetId="26" r:id="rId7"/>
-    <sheet name="0201" sheetId="3" r:id="rId8"/>
-    <sheet name="0202" sheetId="9" r:id="rId9"/>
-    <sheet name="0203" sheetId="28" r:id="rId10"/>
-    <sheet name="0205" sheetId="27" r:id="rId11"/>
-    <sheet name="0301" sheetId="11" r:id="rId12"/>
-    <sheet name="0302" sheetId="12" r:id="rId13"/>
-    <sheet name="0401" sheetId="13" r:id="rId14"/>
-    <sheet name="0501" sheetId="14" r:id="rId15"/>
-    <sheet name="0502" sheetId="16" r:id="rId16"/>
-    <sheet name="0503" sheetId="18" r:id="rId17"/>
-    <sheet name="个人用户接口流程" sheetId="23" r:id="rId18"/>
-    <sheet name="企业用户接口流程" sheetId="24" r:id="rId19"/>
-    <sheet name="附录-证件类型" sheetId="8" r:id="rId20"/>
-    <sheet name="附录-sign_info" sheetId="15" r:id="rId21"/>
-    <sheet name="附录-sign_user" sheetId="22" r:id="rId22"/>
-    <sheet name="附录-sign_para" sheetId="19" r:id="rId23"/>
+    <sheet name="0106" sheetId="29" r:id="rId8"/>
+    <sheet name="0201" sheetId="3" r:id="rId9"/>
+    <sheet name="0202" sheetId="9" r:id="rId10"/>
+    <sheet name="0203" sheetId="28" r:id="rId11"/>
+    <sheet name="0205" sheetId="27" r:id="rId12"/>
+    <sheet name="0301" sheetId="11" r:id="rId13"/>
+    <sheet name="0302" sheetId="12" r:id="rId14"/>
+    <sheet name="0401" sheetId="13" r:id="rId15"/>
+    <sheet name="0501" sheetId="14" r:id="rId16"/>
+    <sheet name="0502" sheetId="16" r:id="rId17"/>
+    <sheet name="0503" sheetId="18" r:id="rId18"/>
+    <sheet name="个人用户接口流程" sheetId="23" r:id="rId19"/>
+    <sheet name="企业用户接口流程" sheetId="24" r:id="rId20"/>
+    <sheet name="附录-证件类型" sheetId="8" r:id="rId21"/>
+    <sheet name="附录-sign_info" sheetId="15" r:id="rId22"/>
+    <sheet name="附录-sign_user" sheetId="22" r:id="rId23"/>
+    <sheet name="附录-sign_para" sheetId="19" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="292">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1880,10 +1881,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>创建用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>user_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1976,10 +1973,6 @@
   </si>
   <si>
     <t>psssword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2397,6 +2390,30 @@
   </si>
   <si>
     <t>有效结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户-web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户-web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户-接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户-接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型肯定是个人类型，密码随机生成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2533,7 +2550,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2574,6 +2591,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10876,6 +10896,248 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" s="9" customFormat="1">
+      <c r="B9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" s="9" customFormat="1">
+      <c r="B10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1">
+      <c r="B11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1">
+      <c r="B12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1">
+      <c r="B13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" ht="84">
+      <c r="B14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1">
+      <c r="B16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1">
+      <c r="B17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1"/>
+    <row r="19" spans="1:6" s="9" customFormat="1"/>
+    <row r="20" spans="1:6" s="9" customFormat="1">
+      <c r="A20" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1">
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1">
+      <c r="B22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="9" customFormat="1">
+      <c r="A30" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D30" location="企业用户接口流程!A1" display="附录-企业用户接入流程"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10894,7 +11156,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -10973,13 +11235,13 @@
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="9"/>
@@ -11045,7 +11307,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="153">
+    <row r="14" spans="1:7" ht="84">
       <c r="A14" s="9"/>
       <c r="B14" s="8" t="s">
         <v>127</v>
@@ -11099,7 +11361,7 @@
         <v>115</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -11157,7 +11419,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -11166,7 +11428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G24"/>
   <sheetViews>
@@ -11185,7 +11447,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11323,7 +11585,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -11335,10 +11597,10 @@
     <row r="16" spans="1:7" s="9" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="9" customFormat="1">
@@ -11347,7 +11609,7 @@
         <v>118</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11373,27 +11635,27 @@
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1">
       <c r="B20" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1">
       <c r="B21" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -11424,7 +11686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E22"/>
   <sheetViews>
@@ -11638,7 +11900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E21"/>
   <sheetViews>
@@ -11840,7 +12102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E21"/>
   <sheetViews>
@@ -12035,7 +12297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E30"/>
   <sheetViews>
@@ -12279,7 +12541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H31"/>
   <sheetViews>
@@ -12627,11 +12889,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -12758,13 +13020,13 @@
     </row>
     <row r="11" spans="1:7" ht="69.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>138</v>
       </c>
       <c r="E11" s="16" t="s">
@@ -12774,18 +13036,18 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" ht="69.75" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="16" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="39" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="16" t="s">
         <v>226</v>
       </c>
@@ -12963,7 +13225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A57"/>
   <sheetViews>
@@ -12983,33 +13245,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A15:P70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="15" spans="16:16" ht="15">
-      <c r="P15" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13031,6 +13266,33 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A15:P70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="15" spans="16:16" ht="15">
+      <c r="P15" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13317,7 +13579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E10"/>
   <sheetViews>
@@ -13389,7 +13651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E14"/>
   <sheetViews>
@@ -13547,7 +13809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -13660,10 +13922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:I63"/>
+  <dimension ref="C4:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13695,14 +13957,14 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="19.5" customHeight="1">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -13710,35 +13972,35 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C6" s="21"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
+      <c r="C7" s="22"/>
+      <c r="D7" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="E7" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
-      <c r="C7" s="21"/>
-      <c r="D7" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>37</v>
@@ -13749,40 +14011,40 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
-      <c r="C9" s="21"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="3:9" ht="20.25" customHeight="1">
-      <c r="C10" s="21" t="s">
+    <row r="10" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
+      <c r="C10" s="21"/>
+      <c r="D10" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" ht="20.25" customHeight="1">
+      <c r="C11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C11" s="21"/>
-      <c r="D11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -13790,12 +14052,12 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>273</v>
+        <v>136</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -13803,173 +14065,171 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C13" s="21"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="3:9" ht="21.75" customHeight="1">
+      <c r="C14" s="22"/>
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C14" s="21"/>
-      <c r="D14" s="15" t="s">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C15" s="22"/>
+      <c r="D15" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C15" s="22" t="s">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C16" s="22"/>
-      <c r="D16" s="15" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" ht="23.25" customHeight="1">
+      <c r="C17" s="23"/>
+      <c r="D17" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="3:7" ht="23.25" customHeight="1">
-      <c r="C17" s="22"/>
-      <c r="D17" s="3" t="s">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="3:7" ht="23.25" customHeight="1">
+      <c r="C18" s="23"/>
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="3:7" ht="23.25" customHeight="1">
-      <c r="C18" s="7" t="s">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="3:7" ht="23.25" customHeight="1">
+      <c r="C19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="44.25" customHeight="1">
-      <c r="C19" s="22" t="s">
+    <row r="20" spans="3:7" ht="44.25" customHeight="1">
+      <c r="C20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="41.25" customHeight="1">
-      <c r="C20" s="22"/>
-      <c r="D20" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="41.25" customHeight="1">
+      <c r="C21" s="23"/>
+      <c r="D21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>198</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="48" customHeight="1">
-      <c r="C21" s="22"/>
-      <c r="D21" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="22"/>
-      <c r="D22" s="3" t="s">
+    <row r="22" spans="3:7" ht="48" customHeight="1">
+      <c r="C22" s="23"/>
+      <c r="D22" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="23"/>
+      <c r="D23" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="22"/>
-      <c r="D23" s="3" t="s">
+    <row r="24" spans="3:7">
+      <c r="C24" s="23"/>
+      <c r="D24" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="22"/>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -13979,39 +14239,49 @@
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="22"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="23"/>
+      <c r="D26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="22"/>
-      <c r="D26" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="23"/>
+      <c r="D27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="3"/>
@@ -14169,6 +14439,8 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="3:7">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="3:7">
@@ -14183,29 +14455,33 @@
     <row r="63" spans="3:7">
       <c r="G63" s="5"/>
     </row>
+    <row r="64" spans="3:7">
+      <c r="G64" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="C5:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" location="'0101'!A1" display="0101"/>
     <hyperlink ref="D6" location="'0102'!A1" display="0102"/>
-    <hyperlink ref="D10" location="'0201'!A1" display="0201"/>
-    <hyperlink ref="D11" location="'0202'!A1" display="0202"/>
-    <hyperlink ref="D15" location="'0301'!A1" display="0301"/>
-    <hyperlink ref="D16" location="'0302'!A1" display="0302"/>
-    <hyperlink ref="D18" location="'0401'!A1" display="0401"/>
-    <hyperlink ref="D19" location="'0501'!A1" display="0501"/>
-    <hyperlink ref="D20" location="'0502'!A1" display="0502"/>
-    <hyperlink ref="D21" location="'0503'!A1" display="0503"/>
+    <hyperlink ref="D11" location="'0201'!A1" display="0201"/>
+    <hyperlink ref="D12" location="'0202'!A1" display="0202"/>
+    <hyperlink ref="D16" location="'0301'!A1" display="0301"/>
+    <hyperlink ref="D17" location="'0302'!A1" display="0302"/>
+    <hyperlink ref="D19" location="'0401'!A1" display="0401"/>
+    <hyperlink ref="D20" location="'0501'!A1" display="0501"/>
+    <hyperlink ref="D21" location="'0502'!A1" display="0502"/>
+    <hyperlink ref="D22" location="'0503'!A1" display="0503"/>
     <hyperlink ref="D7" location="'0103'!A1" display="0103"/>
     <hyperlink ref="D9" location="'0105'!A1" display="0105"/>
-    <hyperlink ref="D12" location="'0203'!A1" display="0203"/>
-    <hyperlink ref="D14" location="'0205'!A1" display="0205"/>
+    <hyperlink ref="D13" location="'0203'!A1" display="0203"/>
+    <hyperlink ref="D15" location="'0205'!A1" display="0205"/>
+    <hyperlink ref="D10" location="'0106'!A1" display="0106"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14217,7 +14493,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14234,7 +14510,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14276,7 +14552,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -14287,27 +14563,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.75">
       <c r="B11" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14346,7 +14622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -14360,7 +14638,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -14429,7 +14707,7 @@
         <v>108</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>51</v>
@@ -14441,10 +14719,10 @@
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>257</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>235</v>
@@ -14456,10 +14734,10 @@
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>256</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>235</v>
@@ -14577,7 +14855,7 @@
   <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="A3:F18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14587,7 +14865,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -14662,7 +14940,7 @@
         <v>108</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>51</v>
@@ -14675,10 +14953,10 @@
     <row r="10" spans="1:8">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>257</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>235</v>
@@ -14691,10 +14969,10 @@
     <row r="11" spans="1:8">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>256</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>235</v>
@@ -14832,7 +15110,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -14955,7 +15233,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -14969,7 +15247,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -14977,19 +15255,19 @@
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1">
       <c r="B18" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -15002,6 +15280,246 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F29"/>
   <sheetViews>
@@ -15091,10 +15609,10 @@
         <v>234</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -15209,10 +15727,10 @@
     <row r="28" spans="1:6" s="9" customFormat="1"/>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -15224,246 +15742,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" s="9" customFormat="1">
-      <c r="B9" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1">
-      <c r="B10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="9" customFormat="1">
-      <c r="B11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="9" customFormat="1">
-      <c r="B12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1">
-      <c r="B13" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" ht="84">
-      <c r="B14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="9" customFormat="1">
-      <c r="B16" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1">
-      <c r="B17" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1"/>
-    <row r="19" spans="1:6" s="9" customFormat="1"/>
-    <row r="20" spans="1:6" s="9" customFormat="1">
-      <c r="A20" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="9" customFormat="1">
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1">
-      <c r="B22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1"/>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1">
-      <c r="A30" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="F30" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D30" location="企业用户接口流程!A1" display="附录-企业用户接入流程"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/电子签约平台/流程梳理/签约模式及API定义.xlsx
+++ b/电子签约平台/流程梳理/签约模式及API定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="966" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -14,30 +14,29 @@
     <sheet name="0102" sheetId="2" r:id="rId5"/>
     <sheet name="0103" sheetId="25" r:id="rId6"/>
     <sheet name="0105" sheetId="26" r:id="rId7"/>
-    <sheet name="0106" sheetId="29" r:id="rId8"/>
-    <sheet name="0201" sheetId="3" r:id="rId9"/>
-    <sheet name="0202" sheetId="9" r:id="rId10"/>
-    <sheet name="0203" sheetId="28" r:id="rId11"/>
-    <sheet name="0205" sheetId="27" r:id="rId12"/>
-    <sheet name="0301" sheetId="11" r:id="rId13"/>
-    <sheet name="0302" sheetId="12" r:id="rId14"/>
-    <sheet name="0401" sheetId="13" r:id="rId15"/>
-    <sheet name="0501" sheetId="14" r:id="rId16"/>
-    <sheet name="0502" sheetId="16" r:id="rId17"/>
-    <sheet name="0503" sheetId="18" r:id="rId18"/>
-    <sheet name="个人用户接口流程" sheetId="23" r:id="rId19"/>
-    <sheet name="企业用户接口流程" sheetId="24" r:id="rId20"/>
-    <sheet name="附录-证件类型" sheetId="8" r:id="rId21"/>
-    <sheet name="附录-sign_info" sheetId="15" r:id="rId22"/>
-    <sheet name="附录-sign_user" sheetId="22" r:id="rId23"/>
-    <sheet name="附录-sign_para" sheetId="19" r:id="rId24"/>
+    <sheet name="0201" sheetId="3" r:id="rId8"/>
+    <sheet name="0202" sheetId="9" r:id="rId9"/>
+    <sheet name="0203" sheetId="28" r:id="rId10"/>
+    <sheet name="0205" sheetId="27" r:id="rId11"/>
+    <sheet name="0301" sheetId="11" r:id="rId12"/>
+    <sheet name="0302" sheetId="12" r:id="rId13"/>
+    <sheet name="0401" sheetId="13" r:id="rId14"/>
+    <sheet name="0501" sheetId="14" r:id="rId15"/>
+    <sheet name="0502" sheetId="16" r:id="rId16"/>
+    <sheet name="0503" sheetId="18" r:id="rId17"/>
+    <sheet name="个人用户接口流程" sheetId="23" r:id="rId18"/>
+    <sheet name="企业用户接口流程" sheetId="24" r:id="rId19"/>
+    <sheet name="附录-证件类型" sheetId="8" r:id="rId20"/>
+    <sheet name="附录-sign_info" sheetId="15" r:id="rId21"/>
+    <sheet name="附录-sign_user" sheetId="22" r:id="rId22"/>
+    <sheet name="附录-sign_para" sheetId="19" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="289">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -293,10 +292,6 @@
   </si>
   <si>
     <t>示例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1125,7 +1120,1135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ly</t>
+    <t>keyword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按坐标签章时的X坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按坐标签章时的Y坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按坐标落章时，不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按坐标落章时，不能为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>security_flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保全服务，直接返回该合同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e(企业)/p（个人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签约完成之后，系统需要自动记录合同信息，包括该份合同涉及到的签署人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以便后续根据签署人信息来进行查询其签署过的合同</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0503</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0505</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_para</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_para</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求查询码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查询码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查询码，批量传参时，该字段需要传入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个签约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量签约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0504</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个签约-同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业类型的签约信息，只能是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> sign_info</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章编码,如果是企业类型，该字段必传，如果个人并且没有user_id的话，动态创建该数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约详细内容,里边可以是多个sign_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签约人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果是企业类型，该字段必传，如果是个人类型，该字段不必须传，如果该字段没有值，那么会直接只用下面的手机号等字段来直接创建用户</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个签约-异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：异步消息收到之后，存入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mogodb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>msg_id(uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形式为主键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，然后还要存储消息体的内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和对应的开发者的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>app_id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端递过来的查询码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时先不实现，系统直接保全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容/二选一，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同内容/二选一，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量签约-异步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_sign_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_sign_para</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约详细内容,里边包括 pub_sign_list(共同签署信息,对应多个sign_info) 和 pub_sign_para(不同签署人的共同的签署参数，对应到sign_para即可)，sign_user_list(不同的签署人信息,需要指定query_code,对应到sign_user,至于批量传输的个数，我们可以定义为100个先)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_user_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id，后续通知时，以该msg_id为主键来通知，只通知处理失败的内容，成功的不再通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id，后续通知时，以该msg_id为主键来通知，只通知处理失败的内容，成功的不再通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时支持合同模板/直接文件流模式（暂时先不实现），同时支持直接保全/无需保全模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时支持合同模板/直接文件流模式（暂时先不实现），同时支持直接保全/无需保全模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>seal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库中找到对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>seal_code,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且找到里边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pfx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seal_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的形式生成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seal_code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的形式生成</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章密码，有印章id时该字段必传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新个人用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新企业用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询已授权用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psssword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码，接口调用时，系统先随机生成一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型，见附录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新个人用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新企业用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询已授权企业信息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章密码，接口时-系统生成随机的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，调用业务之前，具体业务流程，请参照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附录</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人用户接口流程</t>
+    </r>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意，调用业务之前，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关的操作，详细参照</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附录</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业用户接入流程</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>makeSeal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这样就会在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库生成一条对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>seal_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业印章修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改企业印章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cfca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>updateSeal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户印章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章正文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sign_user:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准签约模式的签约人信息</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usern_ame</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1244,1176 +2367,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>keyword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按坐标签章时的X坐标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按坐标签章时的Y坐标</t>
+    <t>ly</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>按关键字落章时，不能为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按坐标落章时，不能为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按坐标落章时，不能为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>security_flag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非保全服务，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直接返回签约之后的合同内容</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract_url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保全服务，直接返回该合同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>url</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contract_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e(企业)/p（个人）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>签约完成之后，系统需要自动记录合同信息，包括该份合同涉及到的签署人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以便后续根据签署人信息来进行查询其签署过的合同</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0503</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0505</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_para</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_para</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>standar_user:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准签约模式的签约人信息</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求查询码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户查询码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户查询码，批量传参时，该字段需要传入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户查询码，批量传参时，该字段需要传入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个签约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量签约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0504</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0508</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个签约-同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企业类型的签约信息，只能是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> sign_info</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章编码,如果是企业类型，该字段必传，如果个人并且没有user_id的话，动态创建该数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约详细内容,里边可以是多个sign_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>签约人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果是企业类型，该字段必传，如果是个人类型，该字段不必须传，如果该字段没有值，那么会直接只用下面的手机号等字段来直接创建用户</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个签约-异步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：异步消息收到之后，存入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mogodb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中，以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>msg_id(uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>形式为主键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，然后还要存储消息体的内容</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和对应的开发者的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>app_id</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端递过来的查询码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时先不实现，系统直接保全</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同内容/二选一，暂时不要该字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同内容/二选一，暂时不要该字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否直接进行保全服务,默认1，不保全，暂时不要该字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量签约-异步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_sign_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_sign_para</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约详细内容,里边包括 pub_sign_list(共同签署信息,对应多个sign_info) 和 pub_sign_para(不同签署人的共同的签署参数，对应到sign_para即可)，sign_user_list(不同的签署人信息,需要指定query_code,对应到sign_user,至于批量传输的个数，我们可以定义为100个先)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_user_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息id，后续通知时，以该msg_id为主键来通知，只通知处理失败的内容，成功的不再通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息id，后续通知时，以该msg_id为主键来通知，只通知处理失败的内容，成功的不再通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时支持合同模板/直接文件流模式（暂时先不实现），同时支持直接保全/无需保全模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时支持合同模板/直接文件流模式（暂时先不实现），同时支持直接保全/无需保全模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>seal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库中找到对应的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>seal_code,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并且找到里边的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>pfx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>seal_code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的形式生成</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>seal_code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的形式生成</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seal_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章密码，有印章id时该字段必传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>e,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新个人用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新企业用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询已授权用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>psssword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码，接口调用时，系统先随机生成一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型，见附录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新个人用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新企业用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询已授权企业信息列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章密码，接口时-系统生成随机的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，调用业务之前，具体业务流程，请参照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>附录</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个人用户接口流程</t>
-    </r>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注意，调用业务之前，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关的操作，详细参照</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>附录</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企业用户接入流程</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cfca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>makeSeal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，这样就会在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cfca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>seal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库生成一条对应的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>seal_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>记录了</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业印章修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改企业印章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cfca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>updateSeal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询用户印章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章正文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户-web</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户-web</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户-接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户-接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型肯定是个人类型，密码随机生成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2550,7 +2508,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2591,9 +2549,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10896,248 +10851,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" s="9" customFormat="1">
-      <c r="B9" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1">
-      <c r="B10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="9" customFormat="1">
-      <c r="B11" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="9" customFormat="1">
-      <c r="B12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1">
-      <c r="B13" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" ht="84">
-      <c r="B14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="9" customFormat="1">
-      <c r="B16" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1">
-      <c r="B17" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1"/>
-    <row r="19" spans="1:6" s="9" customFormat="1"/>
-    <row r="20" spans="1:6" s="9" customFormat="1">
-      <c r="A20" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="9" customFormat="1">
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1">
-      <c r="B22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1"/>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1">
-      <c r="A30" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="F30" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D30" location="企业用户接口流程!A1" display="附录-企业用户接入流程"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11156,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11222,10 +10935,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="14"/>
@@ -11235,13 +10948,13 @@
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="9"/>
@@ -11250,13 +10963,13 @@
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -11265,13 +10978,13 @@
     <row r="11" spans="1:7">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -11280,13 +10993,13 @@
     <row r="12" spans="1:7">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -11295,13 +11008,13 @@
     <row r="13" spans="1:7">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -11310,13 +11023,13 @@
     <row r="14" spans="1:7" ht="84">
       <c r="A14" s="9"/>
       <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -11325,13 +11038,13 @@
     <row r="15" spans="1:7">
       <c r="A15" s="14"/>
       <c r="B15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -11340,13 +11053,13 @@
     <row r="16" spans="1:7">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>132</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -11355,13 +11068,13 @@
     <row r="17" spans="1:7">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -11387,7 +11100,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -11419,7 +11132,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -11428,7 +11141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G24"/>
   <sheetViews>
@@ -11447,7 +11160,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11513,7 +11226,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="9"/>
@@ -11559,7 +11272,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -11585,7 +11298,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -11597,28 +11310,28 @@
     <row r="16" spans="1:7" s="9" customFormat="1">
       <c r="A16" s="14"/>
       <c r="B16" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="9" customFormat="1">
       <c r="A17" s="14"/>
       <c r="B17" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -11627,35 +11340,35 @@
     </row>
     <row r="19" spans="1:7" s="9" customFormat="1">
       <c r="B19" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1">
       <c r="B20" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1">
       <c r="B21" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -11686,7 +11399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E22"/>
   <sheetViews>
@@ -11707,7 +11420,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11761,39 +11474,39 @@
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -11855,7 +11568,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -11878,10 +11591,10 @@
     <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -11900,7 +11613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E21"/>
   <sheetViews>
@@ -11921,7 +11634,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -11975,39 +11688,39 @@
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -12069,7 +11782,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -12102,7 +11815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E21"/>
   <sheetViews>
@@ -12123,7 +11836,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12176,26 +11889,26 @@
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1">
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>153</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -12257,7 +11970,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -12280,10 +11993,10 @@
     <row r="20" spans="1:5" ht="69">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -12297,12 +12010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12318,7 +12031,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12372,64 +12085,64 @@
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="27.75">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1" ht="27.75">
       <c r="B10" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1"/>
@@ -12472,7 +12185,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -12492,43 +12205,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="9" customFormat="1">
-      <c r="B23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="28.5">
+    <row r="23" spans="1:5" s="17" customFormat="1">
+      <c r="B23" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" s="9" customFormat="1">
       <c r="B24" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="9" customFormat="1">
-      <c r="B25" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -12541,11 +12246,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -12572,7 +12277,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -12638,13 +12343,13 @@
     <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -12653,13 +12358,13 @@
     <row r="10" spans="1:8" ht="27.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -12668,13 +12373,13 @@
     <row r="11" spans="1:8" ht="27.75">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -12682,28 +12387,28 @@
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1">
       <c r="B12" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27.75">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -12782,7 +12487,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -12808,10 +12513,10 @@
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="41.25">
       <c r="B24" s="18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -12819,10 +12524,10 @@
     <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -12835,7 +12540,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="6"/>
@@ -12889,7 +12594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G29"/>
   <sheetViews>
@@ -12910,7 +12615,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -12976,13 +12681,13 @@
     <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -12991,13 +12696,13 @@
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -13006,13 +12711,13 @@
     <row r="10" spans="1:7" ht="27.75">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -13020,36 +12725,36 @@
     </row>
     <row r="11" spans="1:7" ht="69.75" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>138</v>
+      <c r="B11" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" ht="69.75" customHeight="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="39" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -13119,7 +12824,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -13145,10 +12850,10 @@
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="41.25">
       <c r="B23" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -13200,7 +12905,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -13225,19 +12930,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="57" spans="1:1">
       <c r="A57" s="9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13245,6 +12950,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A15:P70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="15" spans="16:16" ht="15">
+      <c r="P15" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13266,33 +12998,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A15:P70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="15" spans="16:16" ht="15">
-      <c r="P15" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13307,15 +13012,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -13323,7 +13028,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -13331,7 +13036,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
@@ -13339,7 +13044,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
@@ -13347,7 +13052,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
@@ -13355,7 +13060,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
@@ -13363,7 +13068,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
@@ -13371,7 +13076,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
@@ -13379,7 +13084,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12">
         <v>8</v>
@@ -13387,7 +13092,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="12">
         <v>9</v>
@@ -13395,137 +13100,137 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -13533,7 +13238,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -13542,17 +13247,17 @@
     <row r="29" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -13560,16 +13265,16 @@
     <row r="32" spans="1:4">
       <c r="A32" s="9"/>
       <c r="B32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="D32" s="14"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -13579,11 +13284,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -13595,7 +13302,7 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1"/>
@@ -13615,30 +13322,30 @@
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1">
       <c r="B5" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="16" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -13651,12 +13358,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13669,7 +13376,7 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1"/>
@@ -13689,118 +13396,107 @@
     </row>
     <row r="5" spans="1:5" s="17" customFormat="1">
       <c r="B5" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="55.5" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1">
       <c r="B7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27.75">
       <c r="B12" s="9" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1">
       <c r="B13" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -13809,12 +13505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13827,7 +13523,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -13846,72 +13542,72 @@
     </row>
     <row r="5" spans="2:6" ht="46.5" customHeight="1">
       <c r="C5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>160</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="9" t="s">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="C9" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -13922,10 +13618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:I64"/>
+  <dimension ref="C4:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13957,14 +13653,14 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="19.5" customHeight="1">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -13972,35 +13668,35 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
+      <c r="C7" s="21"/>
+      <c r="D7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="3:9" ht="24.75" customHeight="1">
+      <c r="C8" s="21"/>
+      <c r="D8" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
-      <c r="C7" s="22"/>
-      <c r="D7" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="3:9" ht="24.75" customHeight="1">
-      <c r="C8" s="22"/>
-      <c r="D8" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>37</v>
@@ -14011,40 +13707,40 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="3:9" s="9" customFormat="1" ht="24.75" customHeight="1">
-      <c r="C10" s="21"/>
+    <row r="10" spans="3:9" ht="20.25" customHeight="1">
+      <c r="C10" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="15" t="s">
-        <v>287</v>
+        <v>134</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>21</v>
+        <v>109</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="3:9" ht="20.25" customHeight="1">
-      <c r="C11" s="22" t="s">
-        <v>15</v>
-      </c>
+    <row r="11" spans="3:9" ht="21.75" customHeight="1">
+      <c r="C11" s="21"/>
       <c r="D11" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>110</v>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -14052,12 +13748,12 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C12" s="22"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>267</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -14065,171 +13761,173 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C13" s="22"/>
-      <c r="D13" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="3:9" ht="23.25" customHeight="1">
+      <c r="C14" s="21"/>
+      <c r="D14" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="3:9" ht="21.75" customHeight="1">
-      <c r="C14" s="22"/>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="D15" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="3:9" ht="23.25" customHeight="1">
-      <c r="C16" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="C16" s="22"/>
       <c r="D16" s="15" t="s">
         <v>147</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" ht="23.25" customHeight="1">
+      <c r="C17" s="22"/>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="3:7" ht="23.25" customHeight="1">
-      <c r="C17" s="23"/>
-      <c r="D17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="3:7" ht="23.25" customHeight="1">
-      <c r="C18" s="23"/>
-      <c r="D18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="3:7" ht="23.25" customHeight="1">
-      <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="44.25" customHeight="1">
+      <c r="C19" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="44.25" customHeight="1">
-      <c r="C20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>183</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="41.25" customHeight="1">
+      <c r="C20" s="22"/>
+      <c r="D20" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="48" customHeight="1">
+      <c r="C21" s="22"/>
+      <c r="D21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="22"/>
+      <c r="D22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="41.25" customHeight="1">
-      <c r="C21" s="23"/>
-      <c r="D21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="48" customHeight="1">
-      <c r="C22" s="23"/>
-      <c r="D22" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="22"/>
+      <c r="D23" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="23"/>
-      <c r="D23" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="3" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
@@ -14239,49 +13937,39 @@
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="23"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="3" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="23"/>
-      <c r="D27" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="3"/>
@@ -14439,8 +14127,6 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="3:7">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="3:7">
@@ -14455,33 +14141,29 @@
     <row r="63" spans="3:7">
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="3:7">
-      <c r="G64" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="C5:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" location="'0101'!A1" display="0101"/>
     <hyperlink ref="D6" location="'0102'!A1" display="0102"/>
-    <hyperlink ref="D11" location="'0201'!A1" display="0201"/>
-    <hyperlink ref="D12" location="'0202'!A1" display="0202"/>
-    <hyperlink ref="D16" location="'0301'!A1" display="0301"/>
-    <hyperlink ref="D17" location="'0302'!A1" display="0302"/>
-    <hyperlink ref="D19" location="'0401'!A1" display="0401"/>
-    <hyperlink ref="D20" location="'0501'!A1" display="0501"/>
-    <hyperlink ref="D21" location="'0502'!A1" display="0502"/>
-    <hyperlink ref="D22" location="'0503'!A1" display="0503"/>
+    <hyperlink ref="D10" location="'0201'!A1" display="0201"/>
+    <hyperlink ref="D11" location="'0202'!A1" display="0202"/>
+    <hyperlink ref="D15" location="'0301'!A1" display="0301"/>
+    <hyperlink ref="D16" location="'0302'!A1" display="0302"/>
+    <hyperlink ref="D18" location="'0401'!A1" display="0401"/>
+    <hyperlink ref="D19" location="'0501'!A1" display="0501"/>
+    <hyperlink ref="D20" location="'0502'!A1" display="0502"/>
+    <hyperlink ref="D21" location="'0503'!A1" display="0503"/>
     <hyperlink ref="D7" location="'0103'!A1" display="0103"/>
     <hyperlink ref="D9" location="'0105'!A1" display="0105"/>
-    <hyperlink ref="D13" location="'0203'!A1" display="0203"/>
-    <hyperlink ref="D15" location="'0205'!A1" display="0205"/>
-    <hyperlink ref="D10" location="'0106'!A1" display="0106"/>
+    <hyperlink ref="D12" location="'0203'!A1" display="0203"/>
+    <hyperlink ref="D14" location="'0205'!A1" display="0205"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14493,7 +14175,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14510,7 +14192,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14540,55 +14222,55 @@
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.75">
       <c r="B11" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14605,10 +14287,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -14623,7 +14305,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14638,7 +14320,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -14704,13 +14386,13 @@
     <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="9"/>
@@ -14719,13 +14401,13 @@
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -14734,13 +14416,13 @@
     <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -14748,7 +14430,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -14855,7 +14537,7 @@
   <dimension ref="A3:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14865,7 +14547,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -14937,13 +14619,13 @@
     <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="9"/>
@@ -14953,13 +14635,13 @@
     <row r="10" spans="1:8">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -14969,13 +14651,13 @@
     <row r="11" spans="1:8">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -14990,7 +14672,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -15097,7 +14779,7 @@
   <dimension ref="A3:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15110,7 +14792,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -15209,7 +14891,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -15233,7 +14915,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -15244,10 +14926,10 @@
     <row r="17" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -15255,19 +14937,19 @@
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1">
       <c r="B18" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -15281,250 +14963,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15539,7 +14981,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -15593,26 +15035,26 @@
     <row r="8" spans="1:5">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="27.75">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -15681,7 +15123,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -15704,10 +15146,10 @@
     <row r="21" spans="1:6">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -15721,16 +15163,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="9" customFormat="1"/>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F29" s="16"/>
     </row>
@@ -15742,4 +15184,246 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" s="9" customFormat="1">
+      <c r="B9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" s="9" customFormat="1">
+      <c r="B10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1">
+      <c r="B11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1">
+      <c r="B12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1">
+      <c r="B13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" ht="84">
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1">
+      <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1">
+      <c r="B17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1"/>
+    <row r="19" spans="1:6" s="9" customFormat="1"/>
+    <row r="20" spans="1:6" s="9" customFormat="1">
+      <c r="A20" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1">
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1">
+      <c r="B22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="9" customFormat="1">
+      <c r="A30" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D30" location="企业用户接口流程!A1" display="附录-企业用户接入流程"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>